--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9DBDF1-A321-4FE1-93E9-AA91FBDC1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743C814-AA48-D14A-A499-60380F2910A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="1635" windowWidth="31320" windowHeight="18525" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
+    <workbookView xWindow="-21180" yWindow="1800" windowWidth="20380" windowHeight="17400" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Price</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Bookings y/y</t>
+  </si>
+  <si>
+    <t>S/O</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -323,6 +326,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -397,16 +403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>29765</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65484</xdr:rowOff>
+      <xdr:rowOff>25797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>29765</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>41672</xdr:rowOff>
+      <xdr:rowOff>1985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -421,8 +427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10971609" y="65484"/>
-          <a:ext cx="0" cy="6405563"/>
+          <a:off x="14015640" y="25797"/>
+          <a:ext cx="0" cy="6643688"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -747,25 +753,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE8E6B-4B4B-464E-A208-C37C1AB38F9F}">
   <dimension ref="K2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -777,17 +783,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>21179.739700000002</v>
+        <v>19364.333440000002</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -798,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -809,16 +815,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>19191.739700000002</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
+        <v>17376.333440000002</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -826,7 +832,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>7</v>
       </c>
@@ -838,28 +844,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC7D717-BF13-4B06-BD00-B0629B64921F}">
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="21" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -972,7 +978,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1023,6 +1029,9 @@
       </c>
       <c r="R3" s="4">
         <v>58.8</v>
+      </c>
+      <c r="T3" s="4">
+        <v>65.5</v>
       </c>
       <c r="AE3">
         <f>J3</f>
@@ -1037,7 +1046,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1090,10 +1099,12 @@
         <v>12807</v>
       </c>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>14000</v>
+      </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1166,7 +1177,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1222,7 +1233,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1262,9 @@
         <v>899.4</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="7">
+        <v>780.7</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="AE7" s="2">
         <v>1882.5429999999999</v>
@@ -1263,7 +1276,7 @@
         <v>2872.2579999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1275,12 +1288,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="10"/>
     </row>
-    <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1314,9 @@
         <v>568.76900000000001</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="11">
+        <v>591.20699999999999</v>
+      </c>
       <c r="Q11" s="11">
         <v>517.70699999999999</v>
       </c>
@@ -1309,7 +1324,9 @@
         <v>579</v>
       </c>
       <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="T11" s="11">
+        <v>680.8</v>
+      </c>
       <c r="U11" s="11"/>
       <c r="AE11" s="9">
         <v>923.88499999999999</v>
@@ -1321,7 +1338,7 @@
         <v>2225.0520000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1331,11 +1348,17 @@
       <c r="N12" s="7">
         <v>151.988</v>
       </c>
+      <c r="P12" s="7">
+        <v>143.15700000000001</v>
+      </c>
       <c r="Q12" s="7">
         <v>126.437</v>
       </c>
       <c r="R12" s="7">
         <v>142.43199999999999</v>
+      </c>
+      <c r="T12" s="7">
+        <v>162.029</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2">
@@ -1345,7 +1368,7 @@
         <v>547.65800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1355,11 +1378,17 @@
       <c r="N13" s="7">
         <v>159.71700000000001</v>
       </c>
+      <c r="P13" s="7">
+        <v>143.148</v>
+      </c>
       <c r="Q13" s="7">
         <v>151.47</v>
       </c>
       <c r="R13" s="7">
         <v>182.11500000000001</v>
+      </c>
+      <c r="T13" s="7">
+        <v>165.84299999999999</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2">
@@ -1369,7 +1398,7 @@
         <v>623.85500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1379,11 +1408,17 @@
       <c r="N14" s="7">
         <v>135.989</v>
       </c>
+      <c r="P14" s="7">
+        <v>158.23500000000001</v>
+      </c>
       <c r="Q14" s="7">
         <v>190.98599999999999</v>
       </c>
       <c r="R14" s="7">
         <v>198.505</v>
+      </c>
+      <c r="T14" s="7">
+        <v>225.03899999999999</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2">
@@ -1393,7 +1428,7 @@
         <v>689.08100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1405,6 +1440,10 @@
         <f>N14+N13+N12</f>
         <v>447.69400000000002</v>
       </c>
+      <c r="P15" s="7">
+        <f t="shared" ref="P15" si="2">P14+P13+P12</f>
+        <v>444.54000000000008</v>
+      </c>
       <c r="Q15" s="7">
         <f>Q14+Q13+Q12</f>
         <v>468.89300000000003</v>
@@ -1412,6 +1451,10 @@
       <c r="R15" s="7">
         <f>R14+R13+R12</f>
         <v>523.05200000000002</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" ref="T15" si="3">T14+T13+T12</f>
+        <v>552.91099999999994</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2">
@@ -1423,7 +1466,7 @@
         <v>1860.5940000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1435,6 +1478,10 @@
         <f>N11-N15</f>
         <v>121.07499999999999</v>
       </c>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16" si="4">P11-P15</f>
+        <v>146.66699999999992</v>
+      </c>
       <c r="Q16" s="7">
         <f>Q11-Q15</f>
         <v>48.813999999999965</v>
@@ -1442,6 +1489,10 @@
       <c r="R16" s="7">
         <f>R11-R15</f>
         <v>55.947999999999979</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" ref="T16" si="5">T11-T15</f>
+        <v>127.88900000000001</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2">
@@ -1453,7 +1504,7 @@
         <v>364.45800000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1463,11 +1514,17 @@
       <c r="N17" s="7">
         <v>173.57</v>
       </c>
+      <c r="P17" s="12">
+        <v>211.75700000000001</v>
+      </c>
       <c r="Q17" s="7">
         <v>235.55099999999999</v>
       </c>
       <c r="R17" s="7">
         <v>248.40700000000001</v>
+      </c>
+      <c r="T17" s="7">
+        <v>315.31900000000002</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2">
@@ -1477,7 +1534,7 @@
         <v>873.47699999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1487,11 +1544,17 @@
       <c r="N18" s="7">
         <v>59.383000000000003</v>
       </c>
+      <c r="P18" s="12">
+        <v>78.676000000000002</v>
+      </c>
       <c r="Q18" s="7">
         <v>81.165000000000006</v>
       </c>
       <c r="R18" s="7">
         <v>79.703999999999994</v>
+      </c>
+      <c r="T18" s="7">
+        <v>96.197000000000003</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2">
@@ -1501,7 +1564,7 @@
         <v>297.31700000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1511,11 +1574,17 @@
       <c r="N19" s="7">
         <v>27.771999999999998</v>
       </c>
+      <c r="P19" s="12">
+        <v>26.501000000000001</v>
+      </c>
       <c r="Q19" s="7">
         <v>32.104999999999997</v>
       </c>
       <c r="R19" s="7">
         <v>29.74</v>
+      </c>
+      <c r="T19" s="7">
+        <v>30.327999999999999</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2">
@@ -1525,7 +1594,7 @@
         <v>117.44799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1537,6 +1606,10 @@
         <f>N19+N18+N17</f>
         <v>260.72500000000002</v>
       </c>
+      <c r="P20" s="12">
+        <f>P19+P18+P17</f>
+        <v>316.93400000000003</v>
+      </c>
       <c r="Q20" s="7">
         <f>Q19+Q18+Q17</f>
         <v>348.82100000000003</v>
@@ -1544,6 +1617,10 @@
       <c r="R20" s="7">
         <f>R19+R18+R17</f>
         <v>357.851</v>
+      </c>
+      <c r="T20" s="7">
+        <f>T17+T18+T19</f>
+        <v>441.84399999999999</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2">
@@ -1555,7 +1632,7 @@
         <v>1288.242</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -1567,6 +1644,10 @@
         <f>N16-N20</f>
         <v>-139.65000000000003</v>
       </c>
+      <c r="P21" s="12">
+        <f>P16-P20</f>
+        <v>-170.26700000000011</v>
+      </c>
       <c r="Q21" s="7">
         <f>Q16-Q20</f>
         <v>-300.00700000000006</v>
@@ -1574,6 +1655,10 @@
       <c r="R21" s="7">
         <f>R16-R20</f>
         <v>-301.90300000000002</v>
+      </c>
+      <c r="T21" s="7">
+        <f>T16-T20</f>
+        <v>-313.95499999999998</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2">
@@ -1585,7 +1670,7 @@
         <v>-923.78399999999988</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1599,7 +1684,7 @@
         <v>356.45600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1697,7 @@
         <v>-6.8049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1637,7 +1722,7 @@
         <v>-930.58899999999983</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1654,7 +1739,7 @@
         <v>-6.2230000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -1679,7 +1764,7 @@
         <v>-924.36599999999987</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1704,7 +1789,7 @@
         <v>-1.5520981128653919</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1724,12 +1809,12 @@
         <v>595.55899999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" ref="Q30" si="2">Q11/M11-1</f>
+        <f t="shared" ref="Q30" si="6">Q11/M11-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="R30" s="5">
@@ -1745,12 +1830,12 @@
         <v>0.15937579623808285</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="3">Q7/M7-1</f>
+        <f t="shared" ref="Q31" si="7">Q7/M7-1</f>
         <v>0.10015631050760931</v>
       </c>
       <c r="R31" s="5">
@@ -1760,52 +1845,52 @@
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:Q32" si="4">+G3/C3-1</f>
+        <f t="shared" ref="G32:Q32" si="8">+G3/C3-1</f>
         <v>0.49367088607594933</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.95321637426900563</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96739130434782639</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.94240837696335067</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.78389830508474567</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29341317365269481</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30662983425414336</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33423180592991919</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.28503562945368177</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.24312896405919671</v>
       </c>
       <c r="R32" s="5">
@@ -1824,7 +1909,7 @@
         <v>0.18787878787878776</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>65</v>
       </c>
@@ -1837,7 +1922,7 @@
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1848,7 +1933,7 @@
         <v>2977.4740000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1859,7 +1944,7 @@
         <v>379.35300000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1955,7 @@
         <v>61.640999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -1883,7 +1968,7 @@
         <v>645.26800000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -1894,7 +1979,7 @@
         <v>592.346</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -1905,7 +1990,7 @@
         <v>526.03</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>55</v>
       </c>
@@ -1918,7 +2003,7 @@
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -1929,7 +2014,7 @@
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>50</v>
       </c>
@@ -1942,10 +2027,10 @@
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="R44"/>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +2041,7 @@
         <v>71.182000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -1967,7 +2052,7 @@
         <v>236.006</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -1978,7 +2063,7 @@
         <v>231.70400000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -1991,7 +2076,7 @@
         <v>3037.2339999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -2002,7 +2087,7 @@
         <v>494.59</v>
       </c>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2098,7 @@
         <v>988.98400000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -2024,7 +2109,7 @@
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -2035,7 +2120,7 @@
         <v>305.03500000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>64</v>
       </c>
@@ -2048,10 +2133,10 @@
         <v>5375.487000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.15">
       <c r="R54"/>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>66</v>
       </c>
@@ -2066,6 +2151,32 @@
       </c>
       <c r="AG55" s="2">
         <v>369.29599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="12">
+        <f>53.587302+516.244161</f>
+        <v>569.83146299999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7">
+        <f>K58*K59</f>
+        <v>38372.450718419997</v>
       </c>
     </row>
   </sheetData>

--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743C814-AA48-D14A-A499-60380F2910A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D318978F-A7D0-4F44-A6AB-3246B1B0759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21180" yWindow="1800" windowWidth="20380" windowHeight="17400" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
+    <workbookView xWindow="-21480" yWindow="825" windowWidth="20190" windowHeight="19950" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>Price</t>
   </si>
@@ -256,12 +256,33 @@
   </si>
   <si>
     <t>S/O</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -337,7 +358,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{65C0FE8F-65FC-468A-84F7-7C5C29E98C6D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -353,15 +376,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>41671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -403,16 +426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25797</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1985</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -427,8 +450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14015640" y="25797"/>
-          <a:ext cx="0" cy="6643688"/>
+          <a:off x="14579203" y="0"/>
+          <a:ext cx="0" cy="6405563"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -455,9 +478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,17 +776,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE8E6B-4B4B-464E-A208-C37C1AB38F9F}">
   <dimension ref="K2:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -780,10 +801,10 @@
         <v>605.13542000000007</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -793,38 +814,39 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>2977</v>
+        <f>966.406+1445.689+1189.135</f>
+        <v>3601.2300000000005</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>989</v>
+        <v>1005.679</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>17376.333440000002</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.15">
+        <v>16768.782440000003</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -832,7 +854,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>7</v>
       </c>
@@ -844,28 +866,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC7D717-BF13-4B06-BD00-B0629B64921F}">
-  <dimension ref="A1:AL60"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="21" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="21" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -926,59 +948,72 @@
       <c r="V2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AE2">
         <v>2015</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AF2">
+        <f>+AE2+1</f>
         <v>2016</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AL2" si="0">+AA2+1</f>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AQ2" si="0">+AF2+1</f>
         <v>2017</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1033,20 +1068,20 @@
       <c r="T3" s="4">
         <v>65.5</v>
       </c>
-      <c r="AE3">
+      <c r="AJ3">
         <f>J3</f>
         <v>37.1</v>
       </c>
-      <c r="AF3">
+      <c r="AK3">
         <f>N3</f>
         <v>49.5</v>
       </c>
-      <c r="AG3">
+      <c r="AL3">
         <f>R3</f>
         <v>58.8</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1139,7 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1176,8 +1211,13 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1273,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1266,34 +1306,34 @@
         <v>780.7</v>
       </c>
       <c r="U7" s="7"/>
-      <c r="AE7" s="2">
+      <c r="AJ7" s="2">
         <v>1882.5429999999999</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AK7" s="2">
         <v>2725.7060000000001</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AL7" s="2">
         <v>2872.2579999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2">
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2">
         <v>678</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AL8" s="2">
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="10"/>
-    </row>
-    <row r="11" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="10"/>
+    </row>
+    <row r="11" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1323,22 +1363,33 @@
       <c r="R11" s="11">
         <v>579</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="S11" s="9">
+        <v>655.34400000000005</v>
+      </c>
       <c r="T11" s="11">
         <v>680.8</v>
       </c>
       <c r="U11" s="11"/>
-      <c r="AE11" s="9">
+      <c r="V11" s="9">
+        <v>749.93899999999996</v>
+      </c>
+      <c r="W11" s="9">
+        <v>801.3</v>
+      </c>
+      <c r="X11" s="9">
+        <v>893.54300000000001</v>
+      </c>
+      <c r="AJ11" s="9">
         <v>923.88499999999999</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AK11" s="9">
         <v>1919.181</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AL11" s="9">
         <v>2225.0520000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1357,18 +1408,30 @@
       <c r="R12" s="7">
         <v>142.43199999999999</v>
       </c>
+      <c r="S12" s="2">
+        <v>151.84100000000001</v>
+      </c>
       <c r="T12" s="7">
         <v>162.029</v>
       </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2">
+      <c r="V12" s="2">
+        <v>171.66399999999999</v>
+      </c>
+      <c r="W12" s="2">
+        <v>178.86600000000001</v>
+      </c>
+      <c r="X12" s="2">
+        <v>198.55699999999999</v>
+      </c>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2">
         <v>496.87</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AL12" s="2">
         <v>547.65800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1387,18 +1450,30 @@
       <c r="R13" s="7">
         <v>182.11500000000001</v>
       </c>
+      <c r="S13" s="2">
+        <v>182.44</v>
+      </c>
       <c r="T13" s="7">
         <v>165.84299999999999</v>
       </c>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2">
+      <c r="V13" s="2">
+        <v>221.75</v>
+      </c>
+      <c r="W13" s="2">
+        <v>202.405</v>
+      </c>
+      <c r="X13" s="2">
+        <v>208.27</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2">
         <v>538.32100000000003</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AL13" s="2">
         <v>623.85500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1417,18 +1492,30 @@
       <c r="R14" s="7">
         <v>198.505</v>
       </c>
+      <c r="S14" s="2">
+        <v>211.04400000000001</v>
+      </c>
       <c r="T14" s="7">
         <v>225.03899999999999</v>
       </c>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2">
+      <c r="V14" s="2">
+        <v>223.31</v>
+      </c>
+      <c r="W14" s="2">
+        <v>226.934</v>
+      </c>
+      <c r="X14" s="2">
+        <v>221.06399999999999</v>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2">
         <v>533.20699999999999</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AL14" s="2">
         <v>689.08100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1452,21 +1539,37 @@
         <f>R14+R13+R12</f>
         <v>523.05200000000002</v>
       </c>
+      <c r="S15" s="7">
+        <f t="shared" ref="S15" si="3">S14+S13+S12</f>
+        <v>545.32500000000005</v>
+      </c>
       <c r="T15" s="7">
-        <f t="shared" ref="T15" si="3">T14+T13+T12</f>
+        <f t="shared" ref="T15" si="4">T14+T13+T12</f>
         <v>552.91099999999994</v>
       </c>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2">
-        <f>+AF12+AF13+AF14</f>
+      <c r="V15" s="7">
+        <f t="shared" ref="V15" si="5">V14+V13+V12</f>
+        <v>616.72399999999993</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" ref="W15:X15" si="6">W14+W13+W12</f>
+        <v>608.20500000000004</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="6"/>
+        <v>627.89099999999996</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2">
+        <f>+AK12+AK13+AK14</f>
         <v>1568.3980000000001</v>
       </c>
-      <c r="AG15" s="2">
-        <f>+AG12+AG13+AG14</f>
+      <c r="AL15" s="2">
+        <f>+AL12+AL13+AL14</f>
         <v>1860.5940000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1479,7 +1582,7 @@
         <v>121.07499999999999</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" ref="P16" si="4">P11-P15</f>
+        <f t="shared" ref="P16" si="7">P11-P15</f>
         <v>146.66699999999992</v>
       </c>
       <c r="Q16" s="7">
@@ -1490,21 +1593,37 @@
         <f>R11-R15</f>
         <v>55.947999999999979</v>
       </c>
+      <c r="S16" s="7">
+        <f t="shared" ref="S16" si="8">S11-S15</f>
+        <v>110.01900000000001</v>
+      </c>
       <c r="T16" s="7">
-        <f t="shared" ref="T16" si="5">T11-T15</f>
+        <f t="shared" ref="T16" si="9">T11-T15</f>
         <v>127.88900000000001</v>
       </c>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2">
-        <f>+AF11-AF15</f>
+      <c r="V16" s="7">
+        <f t="shared" ref="V16" si="10">V11-V15</f>
+        <v>133.21500000000003</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" ref="W16:X16" si="11">W11-W15</f>
+        <v>193.09499999999991</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="11"/>
+        <v>265.65200000000004</v>
+      </c>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2">
+        <f>+AK11-AK15</f>
         <v>350.7829999999999</v>
       </c>
-      <c r="AG16" s="2">
-        <f>+AG11-AG15</f>
+      <c r="AL16" s="2">
+        <f>+AL11-AL15</f>
         <v>364.45800000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1523,18 +1642,30 @@
       <c r="R17" s="7">
         <v>248.40700000000001</v>
       </c>
+      <c r="S17" s="2">
+        <v>275.53699999999998</v>
+      </c>
       <c r="T17" s="7">
         <v>315.31900000000002</v>
       </c>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2">
+      <c r="V17" s="2">
+        <v>341.12900000000002</v>
+      </c>
+      <c r="W17" s="2">
+        <v>362.065</v>
+      </c>
+      <c r="X17" s="2">
+        <v>361.68400000000003</v>
+      </c>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2">
         <v>533.20699999999999</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AL17" s="2">
         <v>873.47699999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1553,18 +1684,30 @@
       <c r="R18" s="7">
         <v>79.703999999999994</v>
       </c>
+      <c r="S18" s="2">
+        <v>97.573999999999998</v>
+      </c>
       <c r="T18" s="7">
         <v>96.197000000000003</v>
       </c>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2">
+      <c r="V18" s="2">
+        <v>98.775999999999996</v>
+      </c>
+      <c r="W18" s="2">
+        <v>97.823999999999998</v>
+      </c>
+      <c r="X18" s="2">
+        <v>105.627</v>
+      </c>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2">
         <v>303.02</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AL18" s="2">
         <v>297.31700000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1583,18 +1726,30 @@
       <c r="R19" s="7">
         <v>29.74</v>
       </c>
+      <c r="S19" s="2">
+        <v>26.754999999999999</v>
+      </c>
       <c r="T19" s="7">
         <v>30.327999999999999</v>
       </c>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2">
+      <c r="V19" s="2">
+        <v>48.503</v>
+      </c>
+      <c r="W19" s="2">
+        <v>35.533999999999999</v>
+      </c>
+      <c r="X19" s="2">
+        <v>36.29</v>
+      </c>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2">
         <v>86.363</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AL19" s="2">
         <v>117.44799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1618,21 +1773,37 @@
         <f>R19+R18+R17</f>
         <v>357.851</v>
       </c>
+      <c r="S20" s="7">
+        <f>S17+S18+S19</f>
+        <v>399.86599999999999</v>
+      </c>
       <c r="T20" s="7">
         <f>T17+T18+T19</f>
         <v>441.84399999999999</v>
       </c>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <f>SUM(AF17:AF19)</f>
+      <c r="V20" s="7">
+        <f>V17+V18+V19</f>
+        <v>488.40800000000002</v>
+      </c>
+      <c r="W20" s="7">
+        <f>W17+W18+W19</f>
+        <v>495.423</v>
+      </c>
+      <c r="X20" s="7">
+        <f>X17+X18+X19</f>
+        <v>503.60100000000006</v>
+      </c>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2">
+        <f>SUM(AK17:AK19)</f>
         <v>922.58999999999992</v>
       </c>
-      <c r="AG20" s="2">
-        <f>SUM(AG17:AG19)</f>
+      <c r="AL20" s="2">
+        <f>SUM(AL17:AL19)</f>
         <v>1288.242</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -1656,48 +1827,84 @@
         <f>R16-R20</f>
         <v>-301.90300000000002</v>
       </c>
+      <c r="S21" s="7">
+        <f>S16-S20</f>
+        <v>-289.84699999999998</v>
+      </c>
       <c r="T21" s="7">
         <f>T16-T20</f>
         <v>-313.95499999999998</v>
       </c>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2">
-        <f>AF16-AF20</f>
+      <c r="V21" s="7">
+        <f>V16-V20</f>
+        <v>-355.19299999999998</v>
+      </c>
+      <c r="W21" s="7">
+        <f>W16-W20</f>
+        <v>-302.32800000000009</v>
+      </c>
+      <c r="X21" s="7">
+        <f>X16-X20</f>
+        <v>-237.94900000000001</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2">
+        <f>AK16-AK20</f>
         <v>-571.80700000000002</v>
       </c>
-      <c r="AG21" s="2">
-        <f>AG16-AG20</f>
+      <c r="AL21" s="2">
+        <f>AL16-AL20</f>
         <v>-923.78399999999988</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="S22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="AJ22" s="2">
         <v>600.17700000000002</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AK22" s="2">
         <v>673.92600000000004</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AL22" s="2">
         <v>356.45600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="AF23">
+      <c r="S23" s="2">
+        <f>-10.012-0.44</f>
+        <v>-10.452</v>
+      </c>
+      <c r="V23" s="2">
+        <f>-10.298+0.898</f>
+        <v>-9.4</v>
+      </c>
+      <c r="W23" s="2">
+        <f>-10.363-0.346</f>
+        <v>-10.709</v>
+      </c>
+      <c r="X23" s="2">
+        <f>-10.204-3.315</f>
+        <v>-13.519</v>
+      </c>
+      <c r="AK23">
         <f>-6.998-1.796</f>
         <v>-8.7940000000000005</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AL23" s="2">
         <f>38.842-39.903-5.744</f>
         <v>-6.8049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1713,16 +1920,32 @@
         <f>R21+R23</f>
         <v>-301.90300000000002</v>
       </c>
-      <c r="AF24" s="2">
-        <f>+AF21+AF23</f>
+      <c r="S24" s="2">
+        <f>+S21+S23</f>
+        <v>-300.29899999999998</v>
+      </c>
+      <c r="V24" s="2">
+        <f>+V21+V23</f>
+        <v>-364.59299999999996</v>
+      </c>
+      <c r="W24" s="2">
+        <f>+W21+W23</f>
+        <v>-313.03700000000009</v>
+      </c>
+      <c r="X24" s="2">
+        <f>+X21+X23</f>
+        <v>-251.46800000000002</v>
+      </c>
+      <c r="AK24" s="2">
+        <f>+AK21+AK23</f>
         <v>-580.601</v>
       </c>
-      <c r="AG24" s="2">
-        <f>+AG21+AG23</f>
+      <c r="AL24" s="2">
+        <f>+AL21+AL23</f>
         <v>-930.58899999999983</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1731,15 +1954,27 @@
         <f>3.202-1.559</f>
         <v>1.643</v>
       </c>
-      <c r="AF25">
+      <c r="S25" s="2">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>-11.829000000000001</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AL25" s="2">
         <f>3.552-9.775</f>
         <v>-6.2230000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -1755,16 +1990,32 @@
         <f>R24-R25</f>
         <v>-303.54599999999999</v>
       </c>
-      <c r="AF26" s="2">
-        <f>+AF24-AF25</f>
+      <c r="S26" s="2">
+        <f>+S24-S25</f>
+        <v>-301.02999999999997</v>
+      </c>
+      <c r="V26" s="2">
+        <f>+V24-V25</f>
+        <v>-364.86999999999995</v>
+      </c>
+      <c r="W26" s="2">
+        <f>+W24-W25</f>
+        <v>-313.03700000000009</v>
+      </c>
+      <c r="X26" s="2">
+        <f>+X24-X25</f>
+        <v>-251.46800000000002</v>
+      </c>
+      <c r="AK26" s="2">
+        <f>+AK24-AK25</f>
         <v>-568.77200000000005</v>
       </c>
-      <c r="AG26" s="2">
-        <f>+AG24-AG25</f>
+      <c r="AL26" s="2">
+        <f>+AL24-AL25</f>
         <v>-924.36599999999987</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1780,16 +2031,32 @@
         <f>R26/R28</f>
         <v>-0.50434736375131051</v>
       </c>
-      <c r="AF27" s="1">
-        <f>+AF26/AF28</f>
+      <c r="S27" s="1">
+        <f>+S26/S28</f>
+        <v>-0.49622756277642149</v>
+      </c>
+      <c r="V27" s="1">
+        <f>+V26/V28</f>
+        <v>-0.58209971969490293</v>
+      </c>
+      <c r="W27" s="1">
+        <f>+W26/W28</f>
+        <v>-0.49295612736606736</v>
+      </c>
+      <c r="X27" s="1">
+        <f>+X26/X28</f>
+        <v>-0.39119869822374753</v>
+      </c>
+      <c r="AK27" s="1">
+        <f>+AK26/AK28</f>
         <v>-1.1243708708768074</v>
       </c>
-      <c r="AG27" s="1">
-        <f>+AG26/AG28</f>
+      <c r="AL27" s="1">
+        <f>+AL26/AL28</f>
         <v>-1.5520981128653919</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1802,95 +2069,126 @@
       <c r="R28" s="7">
         <v>601.85900000000004</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="S28" s="2">
+        <v>606.63699999999994</v>
+      </c>
+      <c r="V28" s="2">
+        <v>626.81700000000001</v>
+      </c>
+      <c r="W28" s="2">
+        <v>635.02</v>
+      </c>
+      <c r="X28" s="2">
+        <v>642.81399999999996</v>
+      </c>
+      <c r="AK28" s="2">
         <v>505.858</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AL28" s="2">
         <v>595.55899999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" ref="Q30" si="6">Q11/M11-1</f>
+        <f t="shared" ref="Q30" si="12">Q11/M11-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="R30" s="5">
         <f>R11/N11-1</f>
         <v>1.798797051175427E-2</v>
       </c>
-      <c r="AF30" s="10">
-        <f>+AF11/AE11-1</f>
+      <c r="S30" s="5" t="e">
+        <f>S11/O11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" s="5">
+        <f>V11/R11-1</f>
+        <v>0.29523143350604486</v>
+      </c>
+      <c r="W30" s="5">
+        <f>W11/S11-1</f>
+        <v>0.22271661905808227</v>
+      </c>
+      <c r="X30" s="5">
+        <f>X11/T11-1</f>
+        <v>0.31248971797884861</v>
+      </c>
+      <c r="AK30" s="10">
+        <f>+AK11/AJ11-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AG30" s="10">
-        <f>+AG11/AF11-1</f>
+      <c r="AL30" s="10">
+        <f>+AL11/AK11-1</f>
         <v>0.15937579623808285</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="7">Q7/M7-1</f>
+        <f t="shared" ref="Q31" si="13">Q7/M7-1</f>
         <v>0.10015631050760931</v>
       </c>
       <c r="R31" s="5">
         <f>R7/N7-1</f>
         <v>0.16787600828966021</v>
       </c>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:Q32" si="8">+G3/C3-1</f>
+        <f t="shared" ref="G32:Q32" si="14">+G3/C3-1</f>
         <v>0.49367088607594933</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.95321637426900563</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.96739130434782639</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.94240837696335067</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.78389830508474567</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.29341317365269481</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.30662983425414336</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.33423180592991919</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.28503562945368177</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.24312896405919671</v>
       </c>
       <c r="R32" s="5">
@@ -1900,16 +2198,16 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="AF32" s="10">
-        <f>AF3/AE3-1</f>
+      <c r="AK32" s="10">
+        <f>AK3/AJ3-1</f>
         <v>0.33423180592991919</v>
       </c>
-      <c r="AG32" s="10">
-        <f>AG3/AF3-1</f>
+      <c r="AL32" s="10">
+        <f>AL3/AK3-1</f>
         <v>0.18787878787878776</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>65</v>
       </c>
@@ -1917,45 +2215,60 @@
         <f>R35-R50</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="AG34" s="2">
-        <f>AG35-AG50</f>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="AL34" s="2">
+        <f>AL35-AL50</f>
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="2">
         <v>2977.4740000000002</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="W35" s="2">
+        <f>866.414+1543.819+1059.246</f>
+        <v>3469.4790000000003</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="AL35" s="2">
         <v>2977.4740000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="R36" s="2">
         <v>379.35300000000001</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="W36" s="2">
+        <v>331.67700000000002</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="AL36" s="2">
         <v>379.35300000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>52</v>
       </c>
       <c r="R37" s="2">
         <v>61.640999999999998</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="W37" s="2">
+        <v>88.537000000000006</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="AL37" s="2">
         <v>61.640999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -1963,34 +2276,47 @@
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
-      <c r="AG38" s="2">
+      <c r="W38" s="2">
+        <f>525.57+292.509</f>
+        <v>818.07900000000006</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="AL38" s="2">
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>54</v>
       </c>
       <c r="R39" s="2">
         <v>592.346</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="W39" s="2">
+        <v>691.29200000000003</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="AL39" s="2">
         <v>592.346</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="R40" s="2">
         <v>526.03</v>
       </c>
-      <c r="AG40" s="2">
+      <c r="W40" s="2">
+        <v>715.50099999999998</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="AL40" s="2">
         <v>526.03</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>55</v>
       </c>
@@ -1998,23 +2324,32 @@
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="W41" s="2">
+        <f>47.938+141.956</f>
+        <v>189.89400000000001</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="AL41" s="2">
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="R42" s="2">
         <v>4.3230000000000004</v>
       </c>
-      <c r="AG42" s="2">
+      <c r="W42" s="2">
+        <v>10.212</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="AL42" s="2">
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>50</v>
       </c>
@@ -2022,48 +2357,86 @@
         <f>SUM(R35:R42)</f>
         <v>5375.4870000000001</v>
       </c>
-      <c r="AG43" s="2">
-        <f>SUM(AG35:AG42)</f>
+      <c r="S43" s="2">
+        <f t="shared" ref="S43:X43" si="15">SUM(S35:S42)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <f t="shared" si="15"/>
+        <v>6314.6710000000012</v>
+      </c>
+      <c r="X43" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="2">
+        <f>SUM(AL35:AL42)</f>
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="R44"/>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>58</v>
       </c>
       <c r="R45" s="2">
         <v>71.182000000000002</v>
       </c>
-      <c r="AG45" s="2">
+      <c r="W45" s="2">
+        <v>49.078000000000003</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="AL45" s="2">
         <v>71.182000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="R46" s="2">
         <v>236.006</v>
       </c>
-      <c r="AG46" s="2">
+      <c r="W46" s="2">
+        <v>273.649</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="AL46" s="2">
         <v>236.006</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>36</v>
       </c>
       <c r="R47" s="2">
         <v>231.70400000000001</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="W47" s="2">
+        <v>292.67599999999999</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="AL47" s="2">
         <v>231.70400000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -2071,56 +2444,77 @@
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
-      <c r="AG48" s="2">
+      <c r="W48" s="2">
+        <f>2513.339+1393.807</f>
+        <v>3907.1459999999997</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="AL48" s="2">
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>61</v>
       </c>
       <c r="R49" s="2">
         <v>494.59</v>
       </c>
-      <c r="AG49" s="2">
+      <c r="W49" s="2">
+        <v>693.81500000000005</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="AL49" s="2">
         <v>494.59</v>
       </c>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="R50" s="2">
         <v>988.98400000000004</v>
       </c>
-      <c r="AG50" s="2">
+      <c r="W50" s="2">
+        <v>1005.338</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="AL50" s="2">
         <v>988.98400000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>62</v>
       </c>
       <c r="R51" s="2">
         <v>10.752000000000001</v>
       </c>
-      <c r="AG51" s="2">
+      <c r="W51" s="2">
+        <v>30.282</v>
+      </c>
+      <c r="X51" s="2"/>
+      <c r="AL51" s="2">
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>63</v>
       </c>
       <c r="R52" s="2">
         <v>305.03500000000003</v>
       </c>
-      <c r="AG52" s="2">
+      <c r="W52" s="2">
+        <v>62.686999999999998</v>
+      </c>
+      <c r="X52" s="2"/>
+      <c r="AL52" s="2">
         <v>305.03500000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>64</v>
       </c>
@@ -2128,54 +2522,119 @@
         <f>SUM(R45:R52)</f>
         <v>5375.487000000001</v>
       </c>
-      <c r="AG53" s="2">
-        <f>SUM(AG45:AG52)</f>
+      <c r="W53" s="2">
+        <f>SUM(W45:W52)</f>
+        <v>6314.6709999999994</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="AL53" s="2">
+        <f>SUM(AL45:AL52)</f>
         <v>5375.487000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="R54"/>
-    </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+    </row>
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="R55"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="R56"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+    </row>
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="R57"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+    </row>
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="R58"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
-      <c r="R55" s="2">
+      <c r="R59" s="2">
         <v>369.29599999999999</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="W59" s="2">
+        <v>238.946</v>
+      </c>
+      <c r="X59" s="2">
+        <f>390.395-W59</f>
+        <v>151.44899999999998</v>
+      </c>
+      <c r="AJ59" s="2">
         <v>524.34</v>
       </c>
-      <c r="AF55" s="2">
+      <c r="AK59" s="2">
         <v>659.10900000000004</v>
       </c>
-      <c r="AG55" s="2">
+      <c r="AL59" s="2">
         <v>369.29599999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="W60" s="2">
+        <v>46.68</v>
+      </c>
+      <c r="X60" s="2">
+        <v>86.381</v>
+      </c>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="W61" s="2">
+        <f>+W59-W60</f>
+        <v>192.26599999999999</v>
+      </c>
+      <c r="X61" s="2">
+        <f>+X59-X60</f>
+        <v>65.067999999999984</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K63" s="12">
         <f>53.587302+516.244161</f>
         <v>569.83146299999999</v>
       </c>
     </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>0</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K64" s="4">
         <v>67.34</v>
       </c>
     </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>2</v>
       </c>
-      <c r="K60" s="7">
-        <f>K58*K59</f>
+      <c r="K65" s="7">
+        <f>K63*K64</f>
         <v>38372.450718419997</v>
       </c>
     </row>

--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D318978F-A7D0-4F44-A6AB-3246B1B0759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA929A-13FD-EA4A-8791-A84E69EF79BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21480" yWindow="825" windowWidth="20190" windowHeight="19950" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
+    <workbookView xWindow="10100" yWindow="820" windowWidth="24460" windowHeight="20500" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>136922</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -450,8 +450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14579203" y="0"/>
-          <a:ext cx="0" cy="6405563"/>
+          <a:off x="16756063" y="0"/>
+          <a:ext cx="0" cy="10787063"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -776,23 +776,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE8E6B-4B4B-464E-A208-C37C1AB38F9F}">
   <dimension ref="K2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -804,17 +806,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>19364.333440000002</v>
+        <v>29651.635580000002</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -826,7 +828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -837,16 +839,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>16768.782440000003</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
+        <v>27056.084580000002</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -854,7 +856,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>7</v>
       </c>
@@ -869,25 +871,25 @@
   <dimension ref="A1:AQ65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="21" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1141,7 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1219,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1275,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>2872.2579999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1328,12 +1330,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="10"/>
     </row>
-    <row r="11" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1371,9 @@
       <c r="T11" s="11">
         <v>680.8</v>
       </c>
-      <c r="U11" s="11"/>
+      <c r="U11" s="11">
+        <v>713.22500000000002</v>
+      </c>
       <c r="V11" s="9">
         <v>749.93899999999996</v>
       </c>
@@ -1379,6 +1383,9 @@
       <c r="X11" s="9">
         <v>893.54300000000001</v>
       </c>
+      <c r="Y11" s="9">
+        <v>918.95299999999997</v>
+      </c>
       <c r="AJ11" s="9">
         <v>923.88499999999999</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>2225.0520000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1414,6 +1421,9 @@
       <c r="T12" s="7">
         <v>162.029</v>
       </c>
+      <c r="U12" s="7">
+        <v>163.58099999999999</v>
+      </c>
       <c r="V12" s="2">
         <v>171.66399999999999</v>
       </c>
@@ -1422,6 +1432,9 @@
       </c>
       <c r="X12" s="2">
         <v>198.55699999999999</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>204.99799999999999</v>
       </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2">
@@ -1431,7 +1444,7 @@
         <v>547.65800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1456,6 +1469,9 @@
       <c r="T13" s="7">
         <v>165.84299999999999</v>
       </c>
+      <c r="U13" s="7">
+        <v>170.71899999999999</v>
+      </c>
       <c r="V13" s="2">
         <v>221.75</v>
       </c>
@@ -1464,6 +1480,9 @@
       </c>
       <c r="X13" s="2">
         <v>208.27</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>231.536</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2">
@@ -1473,7 +1492,7 @@
         <v>623.85500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1498,6 +1517,9 @@
       <c r="T14" s="7">
         <v>225.03899999999999</v>
       </c>
+      <c r="U14" s="7">
+        <v>218.96799999999999</v>
+      </c>
       <c r="V14" s="2">
         <v>223.31</v>
       </c>
@@ -1506,6 +1528,9 @@
       </c>
       <c r="X14" s="2">
         <v>221.06399999999999</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>244.59800000000001</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2">
@@ -1515,7 +1540,7 @@
         <v>689.08100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1544,20 +1569,28 @@
         <v>545.32500000000005</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" ref="T15" si="4">T14+T13+T12</f>
+        <f t="shared" ref="T15:U15" si="4">T14+T13+T12</f>
         <v>552.91099999999994</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="4"/>
+        <v>553.26800000000003</v>
       </c>
       <c r="V15" s="7">
         <f t="shared" ref="V15" si="5">V14+V13+V12</f>
         <v>616.72399999999993</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" ref="W15:X15" si="6">W14+W13+W12</f>
+        <f t="shared" ref="W15:Y15" si="6">W14+W13+W12</f>
         <v>608.20500000000004</v>
       </c>
       <c r="X15" s="7">
         <f t="shared" si="6"/>
         <v>627.89099999999996</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="6"/>
+        <v>681.13200000000006</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2">
@@ -1569,7 +1602,7 @@
         <v>1860.5940000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1594,24 +1627,32 @@
         <v>55.947999999999979</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" ref="S16" si="8">S11-S15</f>
+        <f t="shared" ref="S16:U16" si="8">S11-S15</f>
         <v>110.01900000000001</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" ref="T16" si="9">T11-T15</f>
+        <f t="shared" si="8"/>
         <v>127.88900000000001</v>
       </c>
+      <c r="U16" s="7">
+        <f t="shared" si="8"/>
+        <v>159.95699999999999</v>
+      </c>
       <c r="V16" s="7">
-        <f t="shared" ref="V16" si="10">V11-V15</f>
+        <f t="shared" ref="V16" si="9">V11-V15</f>
         <v>133.21500000000003</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" ref="W16:X16" si="11">W11-W15</f>
+        <f t="shared" ref="W16:Y16" si="10">W11-W15</f>
         <v>193.09499999999991</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>265.65200000000004</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="10"/>
+        <v>237.82099999999991</v>
       </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2">
@@ -1623,7 +1664,7 @@
         <v>364.45800000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1706,7 @@
         <v>873.47699999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +1748,7 @@
         <v>297.31700000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1749,7 +1790,7 @@
         <v>117.44799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1781,6 +1822,10 @@
         <f>T17+T18+T19</f>
         <v>441.84399999999999</v>
       </c>
+      <c r="U20" s="7">
+        <f>U17+U18+U19</f>
+        <v>0</v>
+      </c>
       <c r="V20" s="7">
         <f>V17+V18+V19</f>
         <v>488.40800000000002</v>
@@ -1792,6 +1837,10 @@
       <c r="X20" s="7">
         <f>X17+X18+X19</f>
         <v>503.60100000000006</v>
+      </c>
+      <c r="Y20" s="7">
+        <f>Y17+Y18+Y19</f>
+        <v>0</v>
       </c>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2">
@@ -1803,7 +1852,7 @@
         <v>1288.242</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>42</v>
       </c>
@@ -1835,6 +1884,10 @@
         <f>T16-T20</f>
         <v>-313.95499999999998</v>
       </c>
+      <c r="U21" s="7">
+        <f>U16-U20</f>
+        <v>159.95699999999999</v>
+      </c>
       <c r="V21" s="7">
         <f>V16-V20</f>
         <v>-355.19299999999998</v>
@@ -1846,6 +1899,10 @@
       <c r="X21" s="7">
         <f>X16-X20</f>
         <v>-237.94900000000001</v>
+      </c>
+      <c r="Y21" s="7">
+        <f>Y16-Y20</f>
+        <v>237.82099999999991</v>
       </c>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2">
@@ -1857,7 +1914,7 @@
         <v>-923.78399999999988</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1875,7 +1932,7 @@
         <v>356.45600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1904,7 +1961,7 @@
         <v>-6.8049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1945,7 +2002,7 @@
         <v>-930.58899999999983</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -1974,7 +2031,7 @@
         <v>-6.2230000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>46</v>
       </c>
@@ -2015,7 +2072,7 @@
         <v>-924.36599999999987</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -2056,7 +2113,7 @@
         <v>-1.5520981128653919</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -2088,15 +2145,15 @@
         <v>595.55899999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.15">
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" ref="Q30" si="12">Q11/M11-1</f>
+        <f t="shared" ref="Q30" si="11">Q11/M11-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="R30" s="5">
@@ -2119,6 +2176,10 @@
         <f>X11/T11-1</f>
         <v>0.31248971797884861</v>
       </c>
+      <c r="Y30" s="5">
+        <f>Y11/U11-1</f>
+        <v>0.28844754460373645</v>
+      </c>
       <c r="AK30" s="10">
         <f>+AK11/AJ11-1</f>
         <v>1.0772942519902369</v>
@@ -2128,12 +2189,12 @@
         <v>0.15937579623808285</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="13">Q7/M7-1</f>
+        <f t="shared" ref="Q31" si="12">Q7/M7-1</f>
         <v>0.10015631050760931</v>
       </c>
       <c r="R31" s="5">
@@ -2143,52 +2204,52 @@
       <c r="AK31" s="10"/>
       <c r="AL31" s="10"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:Q32" si="14">+G3/C3-1</f>
+        <f t="shared" ref="G32:Q32" si="13">+G3/C3-1</f>
         <v>0.49367088607594933</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.95321637426900563</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.96739130434782639</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.94240837696335067</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.78389830508474567</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.29341317365269481</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.30662983425414336</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.33423180592991919</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.28503562945368177</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.20833333333333326</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0.24312896405919671</v>
       </c>
       <c r="R32" s="5">
@@ -2207,7 +2268,7 @@
         <v>0.18787878787878776</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>65</v>
       </c>
@@ -2222,7 +2283,7 @@
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2299,7 @@
         <v>2977.4740000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -2253,7 +2314,7 @@
         <v>379.35300000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2268,7 +2329,7 @@
         <v>61.640999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -2286,7 +2347,7 @@
         <v>645.26800000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -2301,7 +2362,7 @@
         <v>592.346</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -2316,7 +2377,7 @@
         <v>526.03</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>55</v>
       </c>
@@ -2334,7 +2395,7 @@
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -2349,7 +2410,7 @@
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>50</v>
       </c>
@@ -2358,27 +2419,27 @@
         <v>5375.4870000000001</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" ref="S43:X43" si="15">SUM(S35:S42)</f>
+        <f t="shared" ref="S43:X43" si="14">SUM(S35:S42)</f>
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6314.6710000000012</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL43" s="2">
@@ -2386,12 +2447,12 @@
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.15">
       <c r="R44"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -2406,7 +2467,7 @@
         <v>71.182000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -2421,7 +2482,7 @@
         <v>236.006</v>
       </c>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -2436,7 +2497,7 @@
         <v>231.70400000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -2454,7 +2515,7 @@
         <v>3037.2339999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -2469,7 +2530,7 @@
         <v>494.59</v>
       </c>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2545,7 @@
         <v>988.98400000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -2499,7 +2560,7 @@
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>63</v>
       </c>
@@ -2514,7 +2575,7 @@
         <v>305.03500000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>64</v>
       </c>
@@ -2532,12 +2593,12 @@
         <v>5375.487000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.15">
       <c r="R54"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>77</v>
       </c>
@@ -2545,22 +2606,22 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.15">
       <c r="R56"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.15">
       <c r="R57"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.15">
       <c r="R58"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>66</v>
       </c>
@@ -2574,6 +2635,10 @@
         <f>390.395-W59</f>
         <v>151.44899999999998</v>
       </c>
+      <c r="Y59" s="2">
+        <f>637.825-X59-W59</f>
+        <v>247.43000000000009</v>
+      </c>
       <c r="AJ59" s="2">
         <v>524.34</v>
       </c>
@@ -2584,7 +2649,7 @@
         <v>369.29599999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>78</v>
       </c>
@@ -2593,13 +2658,18 @@
         <v>46.68</v>
       </c>
       <c r="X60" s="2">
-        <v>86.381</v>
+        <f>86.381-W60</f>
+        <v>39.701000000000001</v>
+      </c>
+      <c r="Y60" s="2">
+        <f>115.786-X60-W60</f>
+        <v>29.405000000000008</v>
       </c>
       <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>79</v>
       </c>
@@ -2609,10 +2679,14 @@
       </c>
       <c r="X61" s="2">
         <f>+X59-X60</f>
-        <v>65.067999999999984</v>
-      </c>
-    </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
+        <v>111.74799999999999</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>+Y59-Y60</f>
+        <v>218.02500000000009</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>72</v>
       </c>
@@ -2621,7 +2695,7 @@
         <v>569.83146299999999</v>
       </c>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2703,7 @@
         <v>67.34</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>2</v>
       </c>

--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA929A-13FD-EA4A-8791-A84E69EF79BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B963F0-4C65-41F0-A818-749CA1190892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="820" windowWidth="24460" windowHeight="20500" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
+    <workbookView xWindow="-17535" yWindow="1725" windowWidth="16935" windowHeight="18090" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>Price</t>
   </si>
@@ -277,6 +277,21 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Unique Payers</t>
   </si>
 </sst>
 </file>
@@ -376,15 +391,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>41671</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -426,15 +441,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -450,8 +465,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16756063" y="0"/>
-          <a:ext cx="0" cy="10787063"/>
+          <a:off x="15734109" y="0"/>
+          <a:ext cx="0" cy="10406063"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -776,25 +791,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE8E6B-4B4B-464E-A208-C37C1AB38F9F}">
   <dimension ref="K2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -806,17 +819,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>29651.635580000002</v>
+        <v>36913.260620000001</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -839,16 +852,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>27056.084580000002</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.15">
+        <v>34317.709619999994</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -856,7 +869,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>7</v>
       </c>
@@ -868,28 +881,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC7D717-BF13-4B06-BD00-B0629B64921F}">
-  <dimension ref="A1:AQ65"/>
+  <dimension ref="A1:AT66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X55" sqref="X55"/>
+      <selection pane="bottomRight" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="21" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="21" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -962,60 +975,71 @@
       <c r="Z2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AE2">
+      <c r="AA2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2">
         <v>2015</v>
       </c>
-      <c r="AF2">
-        <f>+AE2+1</f>
+      <c r="AI2">
+        <f>+AH2+1</f>
         <v>2016</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:AQ2" si="0">+AF2+1</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AT2" si="0">+AI2+1</f>
         <v>2017</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1067,1648 +1091,1843 @@
       <c r="R3" s="4">
         <v>58.8</v>
       </c>
+      <c r="S3" s="4">
+        <v>66.099999999999994</v>
+      </c>
       <c r="T3" s="4">
         <v>65.5</v>
       </c>
-      <c r="AJ3">
+      <c r="U3" s="4">
+        <v>70.2</v>
+      </c>
+      <c r="V3" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="W3">
+        <v>77.7</v>
+      </c>
+      <c r="X3">
+        <v>79.5</v>
+      </c>
+      <c r="Y3">
+        <v>88.9</v>
+      </c>
+      <c r="Z3">
+        <v>85.3</v>
+      </c>
+      <c r="AM3">
         <f>J3</f>
         <v>37.1</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <f>N3</f>
         <v>49.5</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <f>R3</f>
         <v>58.8</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="U4" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="V4">
+        <v>15.9</v>
+      </c>
+      <c r="W4">
+        <v>15.6</v>
+      </c>
+      <c r="X4">
+        <v>16.5</v>
+      </c>
+      <c r="Y4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>2974</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>3248</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <v>3730</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>3701</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>4875</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="7">
         <v>8586</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I5" s="7">
         <v>8711</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J5" s="7">
         <v>8430</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K5" s="7">
         <v>9674</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="7">
         <v>9738</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M5" s="7">
         <v>11184</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N5" s="7">
         <v>10818</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O5" s="7">
         <v>11822</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P5" s="7">
         <v>11294</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q5" s="7">
         <v>13399</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R5" s="7">
         <v>12807</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7">
+      <c r="S5" s="7">
+        <v>14500</v>
+      </c>
+      <c r="T5" s="7">
         <v>14000</v>
       </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="U5" s="7">
+        <v>16000</v>
+      </c>
+      <c r="V5" s="7">
+        <v>15500</v>
+      </c>
+      <c r="W5">
+        <v>16700</v>
+      </c>
+      <c r="X5">
+        <v>17400</v>
+      </c>
+      <c r="Y5">
+        <v>20700</v>
+      </c>
+      <c r="Z5">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
-        <f>+C4/C3</f>
+      <c r="C6" s="7">
+        <f>+C5/C3</f>
         <v>188.22784810126581</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:R5" si="1">+D4/D3</f>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:AA6" si="1">+D5/D3</f>
         <v>189.94152046783626</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>202.71739130434784</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>193.7696335078534</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>206.56779661016947</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>257.06586826347308</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>240.63535911602207</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>227.22371967654985</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
         <v>229.78622327790973</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>225.41666666666666</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>236.44820295983089</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N6" s="7">
         <f t="shared" si="1"/>
         <v>218.54545454545453</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O6" s="7">
         <f t="shared" si="1"/>
         <v>218.52125693160812</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P6" s="7">
         <f t="shared" si="1"/>
         <v>216.36015325670496</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q6" s="7">
         <f t="shared" si="1"/>
         <v>227.87414965986395</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R6" s="7">
         <f t="shared" si="1"/>
         <v>217.80612244897961</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>219.36459909228444</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="1"/>
+        <v>213.74045801526717</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="1"/>
+        <v>227.92022792022792</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>216.78321678321677</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="1"/>
+        <v>214.92921492921491</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="1"/>
+        <v>218.8679245283019</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="1"/>
+        <v>232.84589426321708</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="1"/>
+        <v>219.22626025791325</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>8.98</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>8.7799999999999994</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="8">
         <v>12.37</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <v>10.58</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <v>14.81</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>13.73</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>17.3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="8">
         <v>15.48</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L7" s="8">
         <v>15.41</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M7" s="8">
         <v>13.49</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N7" s="8">
         <v>15.57</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="8">
         <v>11.67</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P7" s="8">
         <v>12.25</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q7" s="8">
         <v>11.94</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R7" s="8">
         <v>15.29</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
         <v>637.83299999999997</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="7">
         <v>770.11599999999999</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7">
         <v>701.71600000000001</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R8" s="7">
         <v>899.4</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
+      <c r="S8" s="7">
+        <v>773.8</v>
+      </c>
+      <c r="T8" s="7">
         <v>780.7</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="AJ7" s="2">
+      <c r="U8" s="7">
+        <v>839.5</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1126.8</v>
+      </c>
+      <c r="W8" s="2">
+        <v>923.8</v>
+      </c>
+      <c r="X8" s="2">
+        <v>955.2</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1128.5</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1361.6</v>
+      </c>
+      <c r="AM8" s="2">
         <v>1882.5429999999999</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AN8" s="2">
         <v>2725.7060000000001</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AO8" s="2">
         <v>2872.2579999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2">
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2">
         <v>678</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AO9" s="2">
         <v>725</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="10"/>
-    </row>
-    <row r="11" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9" t="s">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="10"/>
+    </row>
+    <row r="12" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
         <v>509.33600000000001</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N12" s="11">
         <v>568.76900000000001</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11">
         <v>591.20699999999999</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q12" s="11">
         <v>517.70699999999999</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R12" s="11">
         <v>579</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S12" s="9">
         <v>655.34400000000005</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T12" s="11">
         <v>680.8</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U12" s="11">
         <v>713.22500000000002</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V12" s="9">
         <v>749.93899999999996</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W12" s="9">
         <v>801.3</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X12" s="9">
         <v>893.54300000000001</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y12" s="9">
         <v>918.95299999999997</v>
       </c>
-      <c r="AJ11" s="9">
+      <c r="Z12" s="9">
+        <v>988.18299999999999</v>
+      </c>
+      <c r="AM12" s="9">
         <v>923.88499999999999</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AN12" s="9">
         <v>1919.181</v>
       </c>
-      <c r="AL11" s="9">
+      <c r="AO12" s="9">
         <v>2225.0520000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>130.01499999999999</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="7">
         <v>151.988</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P13" s="7">
         <v>143.15700000000001</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q13" s="7">
         <v>126.437</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R13" s="7">
         <v>142.43199999999999</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S13" s="2">
         <v>151.84100000000001</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T13" s="7">
         <v>162.029</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U13" s="7">
         <v>163.58099999999999</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V13" s="2">
         <v>171.66399999999999</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W13" s="2">
         <v>178.86600000000001</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X13" s="2">
         <v>198.55699999999999</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y13" s="2">
         <v>204.99799999999999</v>
       </c>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2">
+      <c r="Z13" s="2">
+        <v>218.74100000000001</v>
+      </c>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2">
         <v>496.87</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AO13" s="2">
         <v>547.65800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>129.952</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N14" s="7">
         <v>159.71700000000001</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P14" s="7">
         <v>143.148</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q14" s="7">
         <v>151.47</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R14" s="7">
         <v>182.11500000000001</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S14" s="2">
         <v>182.44</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T14" s="7">
         <v>165.84299999999999</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U14" s="7">
         <v>170.71899999999999</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V14" s="2">
         <v>221.75</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W14" s="2">
         <v>202.405</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X14" s="2">
         <v>208.27</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y14" s="2">
         <v>231.536</v>
       </c>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2">
+      <c r="Z14" s="2">
+        <v>280.61</v>
+      </c>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2">
         <v>538.32100000000003</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AO14" s="2">
         <v>623.85500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="7">
         <v>117.387</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N15" s="7">
         <v>135.989</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P15" s="7">
         <v>158.23500000000001</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q15" s="7">
         <v>190.98599999999999</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R15" s="7">
         <v>198.505</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S15" s="2">
         <v>211.04400000000001</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T15" s="7">
         <v>225.03899999999999</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U15" s="7">
         <v>218.96799999999999</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V15" s="2">
         <v>223.31</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W15" s="2">
         <v>226.934</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X15" s="2">
         <v>221.06399999999999</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y15" s="2">
         <v>244.59800000000001</v>
       </c>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2">
+      <c r="Z15" s="2">
+        <v>222.822</v>
+      </c>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2">
         <v>533.20699999999999</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AO15" s="2">
         <v>689.08100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="7">
-        <f>M14+M13+M12</f>
+      <c r="M16" s="7">
+        <f>M15+M14+M13</f>
         <v>377.35399999999998</v>
       </c>
-      <c r="N15" s="7">
-        <f>N14+N13+N12</f>
+      <c r="N16" s="7">
+        <f>N15+N14+N13</f>
         <v>447.69400000000002</v>
       </c>
-      <c r="P15" s="7">
-        <f t="shared" ref="P15" si="2">P14+P13+P12</f>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16" si="2">P15+P14+P13</f>
         <v>444.54000000000008</v>
       </c>
-      <c r="Q15" s="7">
-        <f>Q14+Q13+Q12</f>
+      <c r="Q16" s="7">
+        <f>Q15+Q14+Q13</f>
         <v>468.89300000000003</v>
       </c>
-      <c r="R15" s="7">
-        <f>R14+R13+R12</f>
+      <c r="R16" s="7">
+        <f>R15+R14+R13</f>
         <v>523.05200000000002</v>
       </c>
-      <c r="S15" s="7">
-        <f t="shared" ref="S15" si="3">S14+S13+S12</f>
+      <c r="S16" s="7">
+        <f t="shared" ref="S16" si="3">S15+S14+S13</f>
         <v>545.32500000000005</v>
       </c>
-      <c r="T15" s="7">
-        <f t="shared" ref="T15:U15" si="4">T14+T13+T12</f>
+      <c r="T16" s="7">
+        <f t="shared" ref="T16:U16" si="4">T15+T14+T13</f>
         <v>552.91099999999994</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U16" s="7">
         <f t="shared" si="4"/>
         <v>553.26800000000003</v>
       </c>
-      <c r="V15" s="7">
-        <f t="shared" ref="V15" si="5">V14+V13+V12</f>
+      <c r="V16" s="7">
+        <f t="shared" ref="V16" si="5">V15+V14+V13</f>
         <v>616.72399999999993</v>
       </c>
-      <c r="W15" s="7">
-        <f t="shared" ref="W15:Y15" si="6">W14+W13+W12</f>
+      <c r="W16" s="7">
+        <f t="shared" ref="W16:Z16" si="6">W15+W14+W13</f>
         <v>608.20500000000004</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X16" s="7">
         <f t="shared" si="6"/>
         <v>627.89099999999996</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y16" s="7">
         <f t="shared" si="6"/>
         <v>681.13200000000006</v>
       </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2">
-        <f>+AK12+AK13+AK14</f>
+      <c r="Z16" s="7">
+        <f t="shared" si="6"/>
+        <v>722.173</v>
+      </c>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2">
+        <f>+AN13+AN14+AN15</f>
         <v>1568.3980000000001</v>
       </c>
-      <c r="AL15" s="2">
-        <f>+AL12+AL13+AL14</f>
+      <c r="AO16" s="2">
+        <f>+AO13+AO14+AO15</f>
         <v>1860.5940000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="7">
-        <f>M11-M15</f>
+      <c r="M17" s="7">
+        <f>M12-M16</f>
         <v>131.98200000000003</v>
       </c>
-      <c r="N16" s="7">
-        <f>N11-N15</f>
+      <c r="N17" s="7">
+        <f>N12-N16</f>
         <v>121.07499999999999</v>
       </c>
-      <c r="P16" s="7">
-        <f t="shared" ref="P16" si="7">P11-P15</f>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17" si="7">P12-P16</f>
         <v>146.66699999999992</v>
       </c>
-      <c r="Q16" s="7">
-        <f>Q11-Q15</f>
+      <c r="Q17" s="7">
+        <f>Q12-Q16</f>
         <v>48.813999999999965</v>
       </c>
-      <c r="R16" s="7">
-        <f>R11-R15</f>
+      <c r="R17" s="7">
+        <f>R12-R16</f>
         <v>55.947999999999979</v>
       </c>
-      <c r="S16" s="7">
-        <f t="shared" ref="S16:U16" si="8">S11-S15</f>
+      <c r="S17" s="7">
+        <f t="shared" ref="S17:U17" si="8">S12-S16</f>
         <v>110.01900000000001</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T17" s="7">
         <f t="shared" si="8"/>
         <v>127.88900000000001</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U17" s="7">
         <f t="shared" si="8"/>
         <v>159.95699999999999</v>
       </c>
-      <c r="V16" s="7">
-        <f t="shared" ref="V16" si="9">V11-V15</f>
+      <c r="V17" s="7">
+        <f t="shared" ref="V17" si="9">V12-V16</f>
         <v>133.21500000000003</v>
       </c>
-      <c r="W16" s="7">
-        <f t="shared" ref="W16:Y16" si="10">W11-W15</f>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17:Z17" si="10">W12-W16</f>
         <v>193.09499999999991</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X17" s="7">
         <f t="shared" si="10"/>
         <v>265.65200000000004</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y17" s="7">
         <f t="shared" si="10"/>
         <v>237.82099999999991</v>
       </c>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2">
-        <f>+AK11-AK15</f>
+      <c r="Z17" s="7">
+        <f t="shared" si="10"/>
+        <v>266.01</v>
+      </c>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2">
+        <f>+AN12-AN16</f>
         <v>350.7829999999999</v>
       </c>
-      <c r="AL16" s="2">
-        <f>+AL11-AL15</f>
+      <c r="AO17" s="2">
+        <f>+AO12-AO16</f>
         <v>364.45800000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="7">
         <v>138.245</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N18" s="7">
         <v>173.57</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P18" s="12">
         <v>211.75700000000001</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q18" s="7">
         <v>235.55099999999999</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R18" s="7">
         <v>248.40700000000001</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S18" s="2">
         <v>275.53699999999998</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T18" s="7">
         <v>315.31900000000002</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V18" s="2">
         <v>341.12900000000002</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W18" s="2">
         <v>362.065</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X18" s="2">
         <v>361.68400000000003</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2">
+      <c r="Z18" s="2">
+        <v>355.03399999999999</v>
+      </c>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2">
         <v>533.20699999999999</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AO18" s="2">
         <v>873.47699999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="7">
         <v>51.584000000000003</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="7">
         <v>59.383000000000003</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P19" s="12">
         <v>78.676000000000002</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q19" s="7">
         <v>81.165000000000006</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R19" s="7">
         <v>79.703999999999994</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S19" s="2">
         <v>97.573999999999998</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T19" s="7">
         <v>96.197000000000003</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V19" s="2">
         <v>98.775999999999996</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W19" s="2">
         <v>97.823999999999998</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X19" s="2">
         <v>105.627</v>
       </c>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2">
+      <c r="Z19" s="2">
+        <v>105.32299999999999</v>
+      </c>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2">
         <v>303.02</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AO19" s="2">
         <v>297.31700000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>19.599</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>27.771999999999998</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P20" s="12">
         <v>26.501000000000001</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q20" s="7">
         <v>32.104999999999997</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R20" s="7">
         <v>29.74</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S20" s="2">
         <v>26.754999999999999</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T20" s="7">
         <v>30.327999999999999</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V20" s="2">
         <v>48.503</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W20" s="2">
         <v>35.533999999999999</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X20" s="2">
         <v>36.29</v>
       </c>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2">
+      <c r="Z20" s="2">
+        <v>49.765000000000001</v>
+      </c>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2">
         <v>86.363</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AO20" s="2">
         <v>117.44799999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="7">
-        <f>M19+M18+M17</f>
+      <c r="M21" s="7">
+        <f>M20+M19+M18</f>
         <v>209.428</v>
       </c>
-      <c r="N20" s="7">
-        <f>N19+N18+N17</f>
+      <c r="N21" s="7">
+        <f>N20+N19+N18</f>
         <v>260.72500000000002</v>
       </c>
-      <c r="P20" s="12">
-        <f>P19+P18+P17</f>
+      <c r="P21" s="12">
+        <f>P20+P19+P18</f>
         <v>316.93400000000003</v>
       </c>
-      <c r="Q20" s="7">
-        <f>Q19+Q18+Q17</f>
+      <c r="Q21" s="7">
+        <f>Q20+Q19+Q18</f>
         <v>348.82100000000003</v>
       </c>
-      <c r="R20" s="7">
-        <f>R19+R18+R17</f>
+      <c r="R21" s="7">
+        <f>R20+R19+R18</f>
         <v>357.851</v>
       </c>
-      <c r="S20" s="7">
-        <f>S17+S18+S19</f>
+      <c r="S21" s="7">
+        <f t="shared" ref="S21:Z21" si="11">S18+S19+S20</f>
         <v>399.86599999999999</v>
       </c>
-      <c r="T20" s="7">
-        <f>T17+T18+T19</f>
+      <c r="T21" s="7">
+        <f t="shared" si="11"/>
         <v>441.84399999999999</v>
       </c>
-      <c r="U20" s="7">
-        <f>U17+U18+U19</f>
+      <c r="U21" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V20" s="7">
-        <f>V17+V18+V19</f>
+      <c r="V21" s="7">
+        <f t="shared" si="11"/>
         <v>488.40800000000002</v>
       </c>
-      <c r="W20" s="7">
-        <f>W17+W18+W19</f>
+      <c r="W21" s="7">
+        <f t="shared" si="11"/>
         <v>495.423</v>
       </c>
-      <c r="X20" s="7">
-        <f>X17+X18+X19</f>
+      <c r="X21" s="7">
+        <f t="shared" si="11"/>
         <v>503.60100000000006</v>
       </c>
-      <c r="Y20" s="7">
-        <f>Y17+Y18+Y19</f>
+      <c r="Y21" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2">
-        <f>SUM(AK17:AK19)</f>
+      <c r="Z21" s="7">
+        <f t="shared" si="11"/>
+        <v>510.12199999999996</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2">
+        <f>SUM(AN18:AN20)</f>
         <v>922.58999999999992</v>
       </c>
-      <c r="AL20" s="2">
-        <f>SUM(AL17:AL19)</f>
+      <c r="AO21" s="2">
+        <f>SUM(AO18:AO20)</f>
         <v>1288.242</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="7">
-        <f>M16-M20</f>
+      <c r="M22" s="7">
+        <f>M17-M21</f>
         <v>-77.44599999999997</v>
       </c>
-      <c r="N21" s="7">
-        <f>N16-N20</f>
+      <c r="N22" s="7">
+        <f>N17-N21</f>
         <v>-139.65000000000003</v>
       </c>
-      <c r="P21" s="12">
-        <f>P16-P20</f>
+      <c r="P22" s="12">
+        <f t="shared" ref="P22:Z22" si="12">P17-P21</f>
         <v>-170.26700000000011</v>
       </c>
-      <c r="Q21" s="7">
-        <f>Q16-Q20</f>
+      <c r="Q22" s="7">
+        <f t="shared" si="12"/>
         <v>-300.00700000000006</v>
       </c>
-      <c r="R21" s="7">
-        <f>R16-R20</f>
+      <c r="R22" s="7">
+        <f t="shared" si="12"/>
         <v>-301.90300000000002</v>
       </c>
-      <c r="S21" s="7">
-        <f>S16-S20</f>
+      <c r="S22" s="7">
+        <f t="shared" si="12"/>
         <v>-289.84699999999998</v>
       </c>
-      <c r="T21" s="7">
-        <f>T16-T20</f>
+      <c r="T22" s="7">
+        <f t="shared" si="12"/>
         <v>-313.95499999999998</v>
       </c>
-      <c r="U21" s="7">
-        <f>U16-U20</f>
+      <c r="U22" s="7">
+        <f t="shared" si="12"/>
         <v>159.95699999999999</v>
       </c>
-      <c r="V21" s="7">
-        <f>V16-V20</f>
+      <c r="V22" s="7">
+        <f t="shared" si="12"/>
         <v>-355.19299999999998</v>
       </c>
-      <c r="W21" s="7">
-        <f>W16-W20</f>
+      <c r="W22" s="7">
+        <f t="shared" si="12"/>
         <v>-302.32800000000009</v>
       </c>
-      <c r="X21" s="7">
-        <f>X16-X20</f>
+      <c r="X22" s="7">
+        <f t="shared" si="12"/>
         <v>-237.94900000000001</v>
       </c>
-      <c r="Y21" s="7">
-        <f>Y16-Y20</f>
+      <c r="Y22" s="7">
+        <f t="shared" si="12"/>
         <v>237.82099999999991</v>
       </c>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2">
-        <f>AK16-AK20</f>
+      <c r="Z22" s="7">
+        <f t="shared" si="12"/>
+        <v>-244.11199999999997</v>
+      </c>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2">
+        <f>AN17-AN21</f>
         <v>-571.80700000000002</v>
       </c>
-      <c r="AL21" s="2">
-        <f>AL16-AL20</f>
+      <c r="AO22" s="2">
+        <f>AO17-AO21</f>
         <v>-923.78399999999988</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="AJ22" s="2">
+      <c r="S23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="AM23" s="2">
         <v>600.17700000000002</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AN23" s="2">
         <v>673.92600000000004</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AO23" s="2">
         <v>356.45600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S24" s="2">
         <f>-10.012-0.44</f>
         <v>-10.452</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V24" s="2">
         <f>-10.298+0.898</f>
         <v>-9.4</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W24" s="2">
         <f>-10.363-0.346</f>
         <v>-10.709</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X24" s="2">
         <f>-10.204-3.315</f>
         <v>-13.519</v>
       </c>
-      <c r="AK23">
+      <c r="Z24" s="2">
+        <f>46.26-10.331</f>
+        <v>35.929000000000002</v>
+      </c>
+      <c r="AN24">
         <f>-6.998-1.796</f>
         <v>-8.7940000000000005</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AO24" s="2">
         <f>38.842-39.903-5.744</f>
         <v>-6.8049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="7">
-        <f>M21+M23</f>
+      <c r="M25" s="7">
+        <f>M22+M24</f>
         <v>-77.44599999999997</v>
       </c>
-      <c r="N24" s="7">
-        <f>N21+N23</f>
+      <c r="N25" s="7">
+        <f>N22+N24</f>
         <v>-139.65000000000003</v>
       </c>
-      <c r="R24" s="7">
-        <f>R21+R23</f>
+      <c r="R25" s="7">
+        <f>R22+R24</f>
         <v>-301.90300000000002</v>
       </c>
-      <c r="S24" s="2">
-        <f>+S21+S23</f>
+      <c r="S25" s="2">
+        <f>+S22+S24</f>
         <v>-300.29899999999998</v>
       </c>
-      <c r="V24" s="2">
-        <f>+V21+V23</f>
+      <c r="V25" s="2">
+        <f>+V22+V24</f>
         <v>-364.59299999999996</v>
       </c>
-      <c r="W24" s="2">
-        <f>+W21+W23</f>
+      <c r="W25" s="2">
+        <f>+W22+W24</f>
         <v>-313.03700000000009</v>
       </c>
-      <c r="X24" s="2">
-        <f>+X21+X23</f>
+      <c r="X25" s="2">
+        <f>+X22+X24</f>
         <v>-251.46800000000002</v>
       </c>
-      <c r="AK24" s="2">
-        <f>+AK21+AK23</f>
+      <c r="Y25" s="2">
+        <f>+Y22+Y24</f>
+        <v>237.82099999999991</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>+Z22+Z24</f>
+        <v>-208.18299999999996</v>
+      </c>
+      <c r="AN25" s="2">
+        <f>+AN22+AN24</f>
         <v>-580.601</v>
       </c>
-      <c r="AL24" s="2">
-        <f>+AL21+AL23</f>
+      <c r="AO25" s="2">
+        <f>+AO22+AO24</f>
         <v>-930.58899999999983</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="R25" s="7">
+      <c r="N26" s="7"/>
+      <c r="R26" s="7">
         <f>3.202-1.559</f>
         <v>1.643</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S26" s="2">
         <v>0.73099999999999998</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V26" s="2">
         <v>0.27700000000000002</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W26" s="2">
         <v>0</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X26" s="2">
         <v>0</v>
       </c>
-      <c r="AK25">
+      <c r="Z26" s="2">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="AN26">
         <v>-11.829000000000001</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AO26" s="2">
         <f>3.552-9.775</f>
         <v>-6.2230000000000008</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="7">
-        <f>M24-M25</f>
+      <c r="M27" s="7">
+        <f>M25-M26</f>
         <v>-77.44599999999997</v>
       </c>
-      <c r="N26" s="7">
-        <f>N24-N25</f>
+      <c r="N27" s="7">
+        <f>N25-N26</f>
         <v>-139.65000000000003</v>
       </c>
-      <c r="R26" s="7">
-        <f>R24-R25</f>
+      <c r="R27" s="7">
+        <f>R25-R26</f>
         <v>-303.54599999999999</v>
       </c>
-      <c r="S26" s="2">
-        <f>+S24-S25</f>
+      <c r="S27" s="2">
+        <f>+S25-S26</f>
         <v>-301.02999999999997</v>
       </c>
-      <c r="V26" s="2">
-        <f>+V24-V25</f>
+      <c r="V27" s="2">
+        <f>+V25-V26</f>
         <v>-364.86999999999995</v>
       </c>
-      <c r="W26" s="2">
-        <f>+W24-W25</f>
+      <c r="W27" s="2">
+        <f>+W25-W26</f>
         <v>-313.03700000000009</v>
       </c>
-      <c r="X26" s="2">
-        <f>+X24-X25</f>
+      <c r="X27" s="2">
+        <f>+X25-X26</f>
         <v>-251.46800000000002</v>
       </c>
-      <c r="AK26" s="2">
-        <f>+AK24-AK25</f>
+      <c r="Y27" s="2">
+        <f>+Y25-Y26</f>
+        <v>237.82099999999991</v>
+      </c>
+      <c r="Z27" s="2">
+        <f>+Z25-Z26</f>
+        <v>-210.83099999999996</v>
+      </c>
+      <c r="AN27" s="2">
+        <f>+AN25-AN26</f>
         <v>-568.77200000000005</v>
       </c>
-      <c r="AL26" s="2">
-        <f>+AL24-AL25</f>
+      <c r="AO27" s="2">
+        <f>+AO25-AO26</f>
         <v>-924.36599999999987</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="8">
-        <f>M26/M28</f>
+      <c r="M28" s="8">
+        <f>M27/M29</f>
         <v>-0.13447073612857069</v>
       </c>
-      <c r="N27" s="8">
-        <f>N26/N28</f>
+      <c r="N28" s="8">
+        <f>N27/N29</f>
         <v>-0.24014031829554547</v>
       </c>
-      <c r="R27" s="8">
-        <f>R26/R28</f>
+      <c r="R28" s="8">
+        <f>R27/R29</f>
         <v>-0.50434736375131051</v>
       </c>
-      <c r="S27" s="1">
-        <f>+S26/S28</f>
+      <c r="S28" s="1">
+        <f>+S27/S29</f>
         <v>-0.49622756277642149</v>
       </c>
-      <c r="V27" s="1">
-        <f>+V26/V28</f>
+      <c r="V28" s="1">
+        <f>+V27/V29</f>
         <v>-0.58209971969490293</v>
       </c>
-      <c r="W27" s="1">
-        <f>+W26/W28</f>
+      <c r="W28" s="1">
+        <f>+W27/W29</f>
         <v>-0.49295612736606736</v>
       </c>
-      <c r="X27" s="1">
-        <f>+X26/X28</f>
+      <c r="X28" s="1">
+        <f>+X27/X29</f>
         <v>-0.39119869822374753</v>
       </c>
-      <c r="AK27" s="1">
-        <f>+AK26/AK28</f>
+      <c r="Y28" s="1" t="e">
+        <f>+Y27/Y29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>+Z27/Z29</f>
+        <v>-0.31900590104403082</v>
+      </c>
+      <c r="AN28" s="1">
+        <f>+AN27/AN29</f>
         <v>-1.1243708708768074</v>
       </c>
-      <c r="AL27" s="1">
-        <f>+AL26/AL28</f>
+      <c r="AO28" s="1">
+        <f>+AO27/AO29</f>
         <v>-1.5520981128653919</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>575.93200000000002</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <v>581.53499999999997</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R29" s="7">
         <v>601.85900000000004</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S29" s="2">
         <v>606.63699999999994</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V29" s="2">
         <v>626.81700000000001</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W29" s="2">
         <v>635.02</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X29" s="2">
         <v>642.81399999999996</v>
       </c>
-      <c r="AK28" s="2">
+      <c r="Z29" s="2">
+        <v>660.9</v>
+      </c>
+      <c r="AN29" s="2">
         <v>505.858</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AO29" s="2">
         <v>595.55899999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" s="5">
-        <f t="shared" ref="Q30" si="11">Q11/M11-1</f>
+      <c r="Q31" s="5">
+        <f t="shared" ref="Q31" si="13">Q12/M12-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
-      <c r="R30" s="5">
-        <f>R11/N11-1</f>
+      <c r="R31" s="5">
+        <f>R12/N12-1</f>
         <v>1.798797051175427E-2</v>
       </c>
-      <c r="S30" s="5" t="e">
-        <f>S11/O11-1</f>
+      <c r="S31" s="5" t="e">
+        <f>S12/O12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="5">
-        <f>V11/R11-1</f>
+      <c r="T31" s="5">
+        <f>T12/P12-1</f>
+        <v>0.15154252233143373</v>
+      </c>
+      <c r="U31" s="5">
+        <f>U12/Q12-1</f>
+        <v>0.37766149578815833</v>
+      </c>
+      <c r="V31" s="5">
+        <f>V12/R12-1</f>
         <v>0.29523143350604486</v>
       </c>
-      <c r="W30" s="5">
-        <f>W11/S11-1</f>
+      <c r="W31" s="5">
+        <f>W12/S12-1</f>
         <v>0.22271661905808227</v>
       </c>
-      <c r="X30" s="5">
-        <f>X11/T11-1</f>
+      <c r="X31" s="5">
+        <f>X12/T12-1</f>
         <v>0.31248971797884861</v>
       </c>
-      <c r="Y30" s="5">
-        <f>Y11/U11-1</f>
+      <c r="Y31" s="5">
+        <f>Y12/U12-1</f>
         <v>0.28844754460373645</v>
       </c>
-      <c r="AK30" s="10">
-        <f>+AK11/AJ11-1</f>
+      <c r="Z31" s="5">
+        <f>Z12/V12-1</f>
+        <v>0.31768450500640721</v>
+      </c>
+      <c r="AN31" s="10">
+        <f>+AN12/AM12-1</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AL30" s="10">
-        <f>+AL11/AK11-1</f>
+      <c r="AO31" s="10">
+        <f>+AO12/AN12-1</f>
         <v>0.15937579623808285</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="12">Q7/M7-1</f>
+      <c r="Q32" s="5">
+        <f t="shared" ref="Q32" si="14">Q8/M8-1</f>
         <v>0.10015631050760931</v>
       </c>
-      <c r="R31" s="5">
-        <f>R7/N7-1</f>
+      <c r="R32" s="5">
+        <f>R8/N8-1</f>
         <v>0.16787600828966021</v>
       </c>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" ref="G32:Q32" si="13">+G3/C3-1</f>
+      <c r="G33" s="5">
+        <f t="shared" ref="G33:Q33" si="15">+G3/C3-1</f>
         <v>0.49367088607594933</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" si="13"/>
+      <c r="H33" s="5">
+        <f t="shared" si="15"/>
         <v>0.95321637426900563</v>
       </c>
-      <c r="I32" s="5">
-        <f t="shared" si="13"/>
+      <c r="I33" s="5">
+        <f t="shared" si="15"/>
         <v>0.96739130434782639</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="13"/>
+      <c r="J33" s="5">
+        <f t="shared" si="15"/>
         <v>0.94240837696335067</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="13"/>
+      <c r="K33" s="5">
+        <f t="shared" si="15"/>
         <v>0.78389830508474567</v>
       </c>
-      <c r="L32" s="5">
-        <f t="shared" si="13"/>
+      <c r="L33" s="5">
+        <f t="shared" si="15"/>
         <v>0.29341317365269481</v>
       </c>
-      <c r="M32" s="5">
-        <f t="shared" si="13"/>
+      <c r="M33" s="5">
+        <f t="shared" si="15"/>
         <v>0.30662983425414336</v>
       </c>
-      <c r="N32" s="5">
-        <f t="shared" si="13"/>
+      <c r="N33" s="5">
+        <f t="shared" si="15"/>
         <v>0.33423180592991919</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" si="13"/>
+      <c r="O33" s="5">
+        <f t="shared" si="15"/>
         <v>0.28503562945368177</v>
       </c>
-      <c r="P32" s="5">
-        <f t="shared" si="13"/>
+      <c r="P33" s="5">
+        <f t="shared" si="15"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="13"/>
+      <c r="Q33" s="5">
+        <f t="shared" si="15"/>
         <v>0.24312896405919671</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R33" s="5">
         <f>+R3/N3-1</f>
         <v>0.18787878787878776</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="AK32" s="10">
-        <f>AK3/AJ3-1</f>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="AN33" s="10">
+        <f>AN3/AM3-1</f>
         <v>0.33423180592991919</v>
       </c>
-      <c r="AL32" s="10">
-        <f>AL3/AK3-1</f>
+      <c r="AO33" s="10">
+        <f>AO3/AN3-1</f>
         <v>0.18787878787878776</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="R34" s="2">
-        <f>R35-R50</f>
+      <c r="R35" s="2">
+        <f>R36-R51</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="AL34" s="2">
-        <f>AL35-AL50</f>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="AO35" s="2">
+        <f>AO36-AO51</f>
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R36" s="2">
         <v>2977.4740000000002</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W36" s="2">
         <f>866.414+1543.819+1059.246</f>
         <v>3469.4790000000003</v>
       </c>
-      <c r="X35" s="2"/>
-      <c r="AL35" s="2">
+      <c r="X36" s="2"/>
+      <c r="AO36" s="2">
         <v>2977.4740000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R37" s="2">
         <v>379.35300000000001</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W37" s="2">
         <v>331.67700000000002</v>
       </c>
-      <c r="X36" s="2"/>
-      <c r="AL36" s="2">
+      <c r="X37" s="2"/>
+      <c r="AO37" s="2">
         <v>379.35300000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R38" s="2">
         <v>61.640999999999998</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W38" s="2">
         <v>88.537000000000006</v>
       </c>
-      <c r="X37" s="2"/>
-      <c r="AL37" s="2">
+      <c r="X38" s="2"/>
+      <c r="AO38" s="2">
         <v>61.640999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R39" s="2">
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W39" s="2">
         <f>525.57+292.509</f>
         <v>818.07900000000006</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="AL38" s="2">
+      <c r="X39" s="2"/>
+      <c r="AO39" s="2">
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R40" s="2">
         <v>592.346</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W40" s="2">
         <v>691.29200000000003</v>
       </c>
-      <c r="X39" s="2"/>
-      <c r="AL39" s="2">
+      <c r="X40" s="2"/>
+      <c r="AO40" s="2">
         <v>592.346</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R41" s="2">
         <v>526.03</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W41" s="2">
         <v>715.50099999999998</v>
       </c>
-      <c r="X40" s="2"/>
-      <c r="AL40" s="2">
+      <c r="X41" s="2"/>
+      <c r="AO41" s="2">
         <v>526.03</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R42" s="2">
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W42" s="2">
         <f>47.938+141.956</f>
         <v>189.89400000000001</v>
       </c>
-      <c r="X41" s="2"/>
-      <c r="AL41" s="2">
+      <c r="X42" s="2"/>
+      <c r="AO42" s="2">
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R43" s="2">
         <v>4.3230000000000004</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W43" s="2">
         <v>10.212</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="AL42" s="2">
+      <c r="X43" s="2"/>
+      <c r="AO43" s="2">
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="R43" s="2">
-        <f>SUM(R35:R42)</f>
+      <c r="R44" s="2">
+        <f>SUM(R36:R43)</f>
         <v>5375.4870000000001</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" ref="S43:X43" si="14">SUM(S35:S42)</f>
+      <c r="S44" s="2">
+        <f t="shared" ref="S44:X44" si="16">SUM(S36:S43)</f>
         <v>0</v>
       </c>
-      <c r="T43" s="2">
-        <f t="shared" si="14"/>
+      <c r="T44" s="2">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U43" s="2">
-        <f t="shared" si="14"/>
+      <c r="U44" s="2">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V43" s="2">
-        <f t="shared" si="14"/>
+      <c r="V44" s="2">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W43" s="2">
-        <f t="shared" si="14"/>
+      <c r="W44" s="2">
+        <f t="shared" si="16"/>
         <v>6314.6710000000012</v>
       </c>
-      <c r="X43" s="2">
-        <f t="shared" si="14"/>
+      <c r="X44" s="2">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="2">
-        <f>SUM(AL35:AL42)</f>
+      <c r="AO44" s="2">
+        <f>SUM(AO36:AO43)</f>
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="R44"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="R45"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R46" s="2">
         <v>71.182000000000002</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W46" s="2">
         <v>49.078000000000003</v>
       </c>
-      <c r="X45" s="2"/>
-      <c r="AL45" s="2">
+      <c r="X46" s="2"/>
+      <c r="AO46" s="2">
         <v>71.182000000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R47" s="2">
         <v>236.006</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W47" s="2">
         <v>273.649</v>
       </c>
-      <c r="X46" s="2"/>
-      <c r="AL46" s="2">
+      <c r="X47" s="2"/>
+      <c r="AO47" s="2">
         <v>236.006</v>
       </c>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R48" s="2">
         <v>231.70400000000001</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W48" s="2">
         <v>292.67599999999999</v>
       </c>
-      <c r="X47" s="2"/>
-      <c r="AL47" s="2">
+      <c r="X48" s="2"/>
+      <c r="AO48" s="2">
         <v>231.70400000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="49" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R49" s="2">
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
-      <c r="W48" s="2">
+      <c r="W49" s="2">
         <f>2513.339+1393.807</f>
         <v>3907.1459999999997</v>
       </c>
-      <c r="X48" s="2"/>
-      <c r="AL48" s="2">
+      <c r="X49" s="2"/>
+      <c r="AO49" s="2">
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+    <row r="50" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R50" s="2">
         <v>494.59</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W50" s="2">
         <v>693.81500000000005</v>
       </c>
-      <c r="X49" s="2"/>
-      <c r="AL49" s="2">
+      <c r="X50" s="2"/>
+      <c r="AO50" s="2">
         <v>494.59</v>
       </c>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="51" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R51" s="2">
         <v>988.98400000000004</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W51" s="2">
         <v>1005.338</v>
       </c>
-      <c r="X50" s="2"/>
-      <c r="AL50" s="2">
+      <c r="X51" s="2"/>
+      <c r="AO51" s="2">
         <v>988.98400000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+    <row r="52" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>62</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R52" s="2">
         <v>10.752000000000001</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W52" s="2">
         <v>30.282</v>
       </c>
-      <c r="X51" s="2"/>
-      <c r="AL51" s="2">
+      <c r="X52" s="2"/>
+      <c r="AO52" s="2">
         <v>10.752000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="53" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>63</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R53" s="2">
         <v>305.03500000000003</v>
       </c>
-      <c r="W52" s="2">
+      <c r="W53" s="2">
         <v>62.686999999999998</v>
       </c>
-      <c r="X52" s="2"/>
-      <c r="AL52" s="2">
+      <c r="X53" s="2"/>
+      <c r="AO53" s="2">
         <v>305.03500000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="54" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="R53" s="2">
-        <f>SUM(R45:R52)</f>
+      <c r="R54" s="2">
+        <f>SUM(R46:R53)</f>
         <v>5375.487000000001</v>
       </c>
-      <c r="W53" s="2">
-        <f>SUM(W45:W52)</f>
+      <c r="W54" s="2">
+        <f>SUM(W46:W53)</f>
         <v>6314.6709999999994</v>
       </c>
-      <c r="X53" s="2"/>
-      <c r="AL53" s="2">
-        <f>SUM(AL45:AL52)</f>
+      <c r="X54" s="2"/>
+      <c r="AO54" s="2">
+        <f>SUM(AO46:AO53)</f>
         <v>5375.487000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="R54"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-    </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
+    <row r="55" spans="2:41" x14ac:dyDescent="0.2">
       <c r="R55"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
       <c r="R56"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:41" x14ac:dyDescent="0.2">
       <c r="R57"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:41" x14ac:dyDescent="0.2">
       <c r="R58"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="59" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="R59"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+    </row>
+    <row r="60" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R60" s="2">
         <v>369.29599999999999</v>
       </c>
-      <c r="W59" s="2">
+      <c r="W60" s="2">
         <v>238.946</v>
       </c>
-      <c r="X59" s="2">
-        <f>390.395-W59</f>
+      <c r="X60" s="2">
+        <f>390.395-W60</f>
         <v>151.44899999999998</v>
       </c>
-      <c r="Y59" s="2">
-        <f>637.825-X59-W59</f>
+      <c r="Y60" s="2">
+        <f>637.825-X60-W60</f>
         <v>247.43000000000009</v>
       </c>
-      <c r="AJ59" s="2">
+      <c r="AM60" s="2">
         <v>524.34</v>
       </c>
-      <c r="AK59" s="2">
+      <c r="AN60" s="2">
         <v>659.10900000000004</v>
       </c>
-      <c r="AL59" s="2">
+      <c r="AO60" s="2">
         <v>369.29599999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="61" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="R60" s="2"/>
-      <c r="W60" s="2">
+      <c r="R61" s="2"/>
+      <c r="W61" s="2">
         <v>46.68</v>
       </c>
-      <c r="X60" s="2">
-        <f>86.381-W60</f>
+      <c r="X61" s="2">
+        <f>86.381-W61</f>
         <v>39.701000000000001</v>
       </c>
-      <c r="Y60" s="2">
-        <f>115.786-X60-W60</f>
+      <c r="Y61" s="2">
+        <f>115.786-X61-W61</f>
         <v>29.405000000000008</v>
       </c>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-    </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2"/>
+    </row>
+    <row r="62" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="W61" s="2">
-        <f>+W59-W60</f>
+      <c r="W62" s="2">
+        <f>+W60-W61</f>
         <v>192.26599999999999</v>
       </c>
-      <c r="X61" s="2">
-        <f>+X59-X60</f>
+      <c r="X62" s="2">
+        <f>+X60-X61</f>
         <v>111.74799999999999</v>
       </c>
-      <c r="Y61" s="2">
-        <f>+Y59-Y60</f>
+      <c r="Y62" s="2">
+        <f>+Y60-Y61</f>
         <v>218.02500000000009</v>
       </c>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="64" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <f>53.587302+516.244161</f>
         <v>569.83146299999999</v>
       </c>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>0</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K65" s="4">
         <v>67.34</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="K65" s="7">
-        <f>K63*K64</f>
+      <c r="K66" s="7">
+        <f>K64*K65</f>
         <v>38372.450718419997</v>
       </c>
     </row>

--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B963F0-4C65-41F0-A818-749CA1190892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA353EC-61CC-47D9-8041-172E650790E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17535" yWindow="1725" windowWidth="16935" windowHeight="18090" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
+    <workbookView xWindow="-42540" yWindow="2190" windowWidth="40710" windowHeight="17760" activeTab="1" xr2:uid="{6D0C9AA7-E60A-45CC-9230-29CA233AF480}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>Price</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Unique Payers</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,6 +370,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,20 +391,854 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$T$2:$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$T$64:$AA$64</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-104.301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.418999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.51300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.35699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>441.62999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.14700000000016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>642.67000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>876.95300000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6286-4E02-850A-7EC2E218FFDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1327054719"/>
+        <c:axId val="1327051839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1327054719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327051839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1327051839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1327054719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43552</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>10422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>41671</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43552</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28281</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -415,8 +1253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18252281" y="23812"/>
-          <a:ext cx="0" cy="8858250"/>
+          <a:off x="27127682" y="10422"/>
+          <a:ext cx="0" cy="10619598"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -441,16 +1279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>39976</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>21648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>39976</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>143886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -465,8 +1303,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15734109" y="0"/>
-          <a:ext cx="0" cy="10406063"/>
+          <a:off x="17141681" y="21648"/>
+          <a:ext cx="0" cy="10855181"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -487,6 +1325,42 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186171</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>116898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>73602</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1D1BDB-F4FD-FE5D-8122-4878EC55D14D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -793,21 +1667,21 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -819,17 +1693,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>36913.260620000001</v>
+        <v>50831.375280000007</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -841,7 +1715,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -852,16 +1726,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>L4-L5+L6</f>
-        <v>34317.709619999994</v>
-      </c>
-    </row>
-    <row r="11" spans="11:13" x14ac:dyDescent="0.2">
+        <v>48235.824280000001</v>
+      </c>
+    </row>
+    <row r="11" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>6</v>
       </c>
@@ -869,7 +1743,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="12" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
         <v>7</v>
       </c>
@@ -881,28 +1755,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC7D717-BF13-4B06-BD00-B0629B64921F}">
-  <dimension ref="A1:AT66"/>
+  <dimension ref="A1:BB68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA31" sqref="AA31"/>
+      <selection pane="bottomRight" activeCell="AX12" sqref="AX12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="4"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="21" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1912,32 @@
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU2">
+        <v>2028</v>
+      </c>
+      <c r="AV2">
+        <v>2029</v>
+      </c>
+      <c r="AW2">
+        <v>2030</v>
+      </c>
+      <c r="AX2">
+        <v>2031</v>
+      </c>
+      <c r="AY2">
+        <v>2032</v>
+      </c>
+      <c r="AZ2">
+        <v>2033</v>
+      </c>
+      <c r="BA2">
+        <v>2034</v>
+      </c>
+      <c r="BB2">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1114,6 +2012,9 @@
       </c>
       <c r="Z3">
         <v>85.3</v>
+      </c>
+      <c r="AA3">
+        <v>97.8</v>
       </c>
       <c r="AM3">
         <f>J3</f>
@@ -1128,7 +2029,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -1153,9 +2054,12 @@
       <c r="Z4">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="AA4">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="7">
@@ -1218,20 +2122,23 @@
       <c r="V5" s="7">
         <v>15500</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>16700</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>17400</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>20700</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>18700</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AA5" s="2">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1331,12 +2238,15 @@
         <f t="shared" si="1"/>
         <v>219.22626025791325</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="7">
+        <f t="shared" si="1"/>
+        <v>221.88139059304703</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -1392,7 +2302,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1444,6 +2354,9 @@
       <c r="Z8" s="2">
         <v>1361.6</v>
       </c>
+      <c r="AA8" s="2">
+        <v>1206.7</v>
+      </c>
       <c r="AM8" s="2">
         <v>1882.5429999999999</v>
       </c>
@@ -1454,7 +2367,7 @@
         <v>2872.2579999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -1466,12 +2379,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="10"/>
     </row>
-    <row r="12" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
@@ -1525,6 +2438,21 @@
       <c r="Z12" s="9">
         <v>988.18299999999999</v>
       </c>
+      <c r="AA12" s="9">
+        <v>1035.2070000000001</v>
+      </c>
+      <c r="AB12" s="9">
+        <f>+W12*1.3</f>
+        <v>1041.69</v>
+      </c>
+      <c r="AC12" s="9">
+        <f>+X12*1.25</f>
+        <v>1116.92875</v>
+      </c>
+      <c r="AD12" s="9">
+        <f>+Y12*1.25</f>
+        <v>1148.6912499999999</v>
+      </c>
       <c r="AM12" s="9">
         <v>923.88499999999999</v>
       </c>
@@ -1534,8 +2462,60 @@
       <c r="AO12" s="9">
         <v>2225.0520000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AP12" s="9">
+        <f>SUM(S12:V12)</f>
+        <v>2799.308</v>
+      </c>
+      <c r="AQ12" s="9">
+        <f>SUM(W12:Z12)</f>
+        <v>3601.9789999999998</v>
+      </c>
+      <c r="AR12" s="9">
+        <f>SUM(AA12:AD12)</f>
+        <v>4342.5169999999998</v>
+      </c>
+      <c r="AS12" s="9">
+        <f>+AR12*1.25</f>
+        <v>5428.1462499999998</v>
+      </c>
+      <c r="AT12" s="9">
+        <f>+AS12*1.25</f>
+        <v>6785.1828124999993</v>
+      </c>
+      <c r="AU12" s="9">
+        <f>+AT12*1.25</f>
+        <v>8481.478515625</v>
+      </c>
+      <c r="AV12" s="9">
+        <f>+AU12*1.25</f>
+        <v>10601.84814453125</v>
+      </c>
+      <c r="AW12" s="9">
+        <f>+AV12*1.2</f>
+        <v>12722.2177734375</v>
+      </c>
+      <c r="AX12" s="9">
+        <f t="shared" ref="AV12:BB12" si="2">+AW12*1.1</f>
+        <v>13994.439550781251</v>
+      </c>
+      <c r="AY12" s="9">
+        <f t="shared" si="2"/>
+        <v>15393.883505859378</v>
+      </c>
+      <c r="AZ12" s="9">
+        <f t="shared" si="2"/>
+        <v>16933.271856445317</v>
+      </c>
+      <c r="BA12" s="9">
+        <f t="shared" si="2"/>
+        <v>18626.599042089849</v>
+      </c>
+      <c r="BB12" s="9">
+        <f t="shared" si="2"/>
+        <v>20489.258946298836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1577,6 +2557,9 @@
       </c>
       <c r="Z13" s="2">
         <v>218.74100000000001</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>224.72499999999999</v>
       </c>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2">
@@ -1585,8 +2568,16 @@
       <c r="AO13" s="2">
         <v>547.65800000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AP13" s="13">
+        <f>SUM(S13:V13)</f>
+        <v>649.11500000000001</v>
+      </c>
+      <c r="AQ13" s="13">
+        <f>SUM(W13:Z13)</f>
+        <v>801.16200000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1628,6 +2619,9 @@
       </c>
       <c r="Z14" s="2">
         <v>280.61</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>281.56400000000002</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2">
@@ -1636,8 +2630,16 @@
       <c r="AO14" s="2">
         <v>623.85500000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AP14" s="13">
+        <f t="shared" ref="AP14:AP15" si="3">SUM(S14:V14)</f>
+        <v>740.75199999999995</v>
+      </c>
+      <c r="AQ14" s="13">
+        <f t="shared" ref="AQ14:AQ15" si="4">SUM(W14:Z14)</f>
+        <v>922.82100000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1679,6 +2681,9 @@
       </c>
       <c r="Z15" s="2">
         <v>222.822</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>242.12700000000001</v>
       </c>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2">
@@ -1687,8 +2692,16 @@
       <c r="AO15" s="2">
         <v>689.08100000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AP15" s="13">
+        <f t="shared" si="3"/>
+        <v>878.36099999999988</v>
+      </c>
+      <c r="AQ15" s="13">
+        <f t="shared" si="4"/>
+        <v>915.41800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +2714,7 @@
         <v>447.69400000000002</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" ref="P16" si="2">P15+P14+P13</f>
+        <f t="shared" ref="P16" si="5">P15+P14+P13</f>
         <v>444.54000000000008</v>
       </c>
       <c r="Q16" s="7">
@@ -1713,36 +2726,52 @@
         <v>523.05200000000002</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" ref="S16" si="3">S15+S14+S13</f>
+        <f t="shared" ref="S16" si="6">S15+S14+S13</f>
         <v>545.32500000000005</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" ref="T16:U16" si="4">T15+T14+T13</f>
+        <f t="shared" ref="T16:U16" si="7">T15+T14+T13</f>
         <v>552.91099999999994</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>553.26800000000003</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" ref="V16" si="5">V15+V14+V13</f>
+        <f t="shared" ref="V16" si="8">V15+V14+V13</f>
         <v>616.72399999999993</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" ref="W16:Z16" si="6">W15+W14+W13</f>
+        <f t="shared" ref="W16:AA16" si="9">W15+W14+W13</f>
         <v>608.20500000000004</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>627.89099999999996</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>681.13200000000006</v>
       </c>
       <c r="Z16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>722.173</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" si="9"/>
+        <v>748.41600000000005</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" ref="AB16:AD16" si="10">AB15+AB14+AB13</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2">
@@ -1753,8 +2782,60 @@
         <f>+AO13+AO14+AO15</f>
         <v>1860.5940000000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP16" s="2">
+        <f t="shared" ref="AP16:AQ16" si="11">+AP13+AP14+AP15</f>
+        <v>2268.2280000000001</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="11"/>
+        <v>2639.4010000000003</v>
+      </c>
+      <c r="AR16" s="2">
+        <f>+AR12-AR17</f>
+        <v>2822.6360500000001</v>
+      </c>
+      <c r="AS16" s="2">
+        <f>+AS12-AS17</f>
+        <v>3256.8877499999999</v>
+      </c>
+      <c r="AT16" s="2">
+        <f t="shared" ref="AS16:BB16" si="12">+AT12-AT17</f>
+        <v>3731.8505468749995</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" si="12"/>
+        <v>4240.7392578125</v>
+      </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="12"/>
+        <v>4770.8316650390616</v>
+      </c>
+      <c r="AW16" s="2">
+        <f t="shared" si="12"/>
+        <v>5470.5536425781256</v>
+      </c>
+      <c r="AX16" s="2">
+        <f t="shared" si="12"/>
+        <v>5597.7758203125013</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" si="12"/>
+        <v>6157.5534023437522</v>
+      </c>
+      <c r="AZ16" s="2">
+        <f t="shared" si="12"/>
+        <v>6773.3087425781268</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" si="12"/>
+        <v>7450.6396168359406</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" si="12"/>
+        <v>8195.7035785195349</v>
+      </c>
+    </row>
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1767,7 +2848,7 @@
         <v>121.07499999999999</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" ref="P17" si="7">P12-P16</f>
+        <f t="shared" ref="P17" si="13">P12-P16</f>
         <v>146.66699999999992</v>
       </c>
       <c r="Q17" s="7">
@@ -1779,36 +2860,52 @@
         <v>55.947999999999979</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" ref="S17:U17" si="8">S12-S16</f>
+        <f t="shared" ref="S17:U17" si="14">S12-S16</f>
         <v>110.01900000000001</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>127.88900000000001</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>159.95699999999999</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17" si="9">V12-V16</f>
+        <f t="shared" ref="V17" si="15">V12-V16</f>
         <v>133.21500000000003</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" ref="W17:Z17" si="10">W12-W16</f>
+        <f t="shared" ref="W17:AA17" si="16">W12-W16</f>
         <v>193.09499999999991</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>265.65200000000004</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>237.82099999999991</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>266.01</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="16"/>
+        <v>286.79100000000005</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" ref="AB17:AD17" si="17">AB12-AB16</f>
+        <v>1041.69</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="17"/>
+        <v>1116.92875</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="17"/>
+        <v>1148.6912499999999</v>
       </c>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2">
@@ -1819,8 +2916,60 @@
         <f>+AO12-AO16</f>
         <v>364.45800000000008</v>
       </c>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP17" s="2">
+        <f t="shared" ref="AP17:AQ17" si="18">+AP12-AP16</f>
+        <v>531.07999999999993</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="18"/>
+        <v>962.57799999999952</v>
+      </c>
+      <c r="AR17" s="2">
+        <f>+AR12*0.35</f>
+        <v>1519.8809499999998</v>
+      </c>
+      <c r="AS17" s="2">
+        <f>+AS12*0.4</f>
+        <v>2171.2584999999999</v>
+      </c>
+      <c r="AT17" s="2">
+        <f>+AT12*0.45</f>
+        <v>3053.3322656249998</v>
+      </c>
+      <c r="AU17" s="2">
+        <f>+AU12*0.5</f>
+        <v>4240.7392578125</v>
+      </c>
+      <c r="AV17" s="2">
+        <f>+AV12*0.55</f>
+        <v>5831.0164794921884</v>
+      </c>
+      <c r="AW17" s="2">
+        <f>+AW12*0.57</f>
+        <v>7251.6641308593744</v>
+      </c>
+      <c r="AX17" s="2">
+        <f>+AX12*0.6</f>
+        <v>8396.6637304687501</v>
+      </c>
+      <c r="AY17" s="2">
+        <f t="shared" ref="AY17:BB17" si="19">+AY12*0.6</f>
+        <v>9236.3301035156255</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f t="shared" si="19"/>
+        <v>10159.96311386719</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" si="19"/>
+        <v>11175.959425253908</v>
+      </c>
+      <c r="BB17" s="2">
+        <f t="shared" si="19"/>
+        <v>12293.555367779301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -1845,6 +2994,9 @@
       <c r="T18" s="7">
         <v>315.31900000000002</v>
       </c>
+      <c r="U18" s="7">
+        <v>321.613</v>
+      </c>
       <c r="V18" s="2">
         <v>341.12900000000002</v>
       </c>
@@ -1854,8 +3006,14 @@
       <c r="X18" s="2">
         <v>361.68400000000003</v>
       </c>
+      <c r="Y18" s="2">
+        <v>365.42399999999998</v>
+      </c>
       <c r="Z18" s="2">
         <v>355.03399999999999</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>374.6</v>
       </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2">
@@ -1864,8 +3022,60 @@
       <c r="AO18" s="2">
         <v>873.47699999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP18" s="13">
+        <f t="shared" ref="AP18:AP20" si="20">SUM(S18:V18)</f>
+        <v>1253.598</v>
+      </c>
+      <c r="AQ18" s="13">
+        <f t="shared" ref="AQ18:AQ20" si="21">SUM(W18:Z18)</f>
+        <v>1444.2069999999999</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" ref="AR18:BB18" si="22">+AQ18*1.05</f>
+        <v>1516.4173499999999</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="22"/>
+        <v>1592.2382175</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="22"/>
+        <v>1671.8501283750002</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="22"/>
+        <v>1755.4426347937504</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="22"/>
+        <v>1843.214766533438</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="22"/>
+        <v>1935.3755048601099</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" si="22"/>
+        <v>2032.1442801031155</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" si="22"/>
+        <v>2133.7514941082713</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f t="shared" si="22"/>
+        <v>2240.439068813685</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" si="22"/>
+        <v>2352.4610222543693</v>
+      </c>
+      <c r="BB18" s="2">
+        <f t="shared" si="22"/>
+        <v>2470.084073367088</v>
+      </c>
+    </row>
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1890,6 +3100,9 @@
       <c r="T19" s="7">
         <v>96.197000000000003</v>
       </c>
+      <c r="U19" s="7">
+        <v>97.507999999999996</v>
+      </c>
       <c r="V19" s="2">
         <v>98.775999999999996</v>
       </c>
@@ -1899,8 +3112,14 @@
       <c r="X19" s="2">
         <v>105.627</v>
       </c>
+      <c r="Y19" s="2">
+        <v>98.733000000000004</v>
+      </c>
       <c r="Z19" s="2">
         <v>105.32299999999999</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>119.13200000000001</v>
       </c>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2">
@@ -1909,8 +3128,60 @@
       <c r="AO19" s="2">
         <v>297.31700000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP19" s="13">
+        <f t="shared" si="20"/>
+        <v>390.05500000000001</v>
+      </c>
+      <c r="AQ19" s="13">
+        <f t="shared" si="21"/>
+        <v>407.50699999999995</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" ref="AR19:BB19" si="23">+AQ19*1.05</f>
+        <v>427.88234999999997</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="23"/>
+        <v>449.27646749999997</v>
+      </c>
+      <c r="AT19" s="2">
+        <f t="shared" si="23"/>
+        <v>471.74029087499997</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" si="23"/>
+        <v>495.32730541874997</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="23"/>
+        <v>520.09367068968754</v>
+      </c>
+      <c r="AW19" s="2">
+        <f t="shared" si="23"/>
+        <v>546.098354224172</v>
+      </c>
+      <c r="AX19" s="2">
+        <f t="shared" si="23"/>
+        <v>573.40327193538064</v>
+      </c>
+      <c r="AY19" s="2">
+        <f t="shared" si="23"/>
+        <v>602.07343553214969</v>
+      </c>
+      <c r="AZ19" s="2">
+        <f t="shared" si="23"/>
+        <v>632.17710730875717</v>
+      </c>
+      <c r="BA19" s="2">
+        <f t="shared" si="23"/>
+        <v>663.78596267419505</v>
+      </c>
+      <c r="BB19" s="2">
+        <f t="shared" si="23"/>
+        <v>696.97526080790487</v>
+      </c>
+    </row>
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1935,6 +3206,9 @@
       <c r="T20" s="7">
         <v>30.327999999999999</v>
       </c>
+      <c r="U20" s="7">
+        <v>40.874000000000002</v>
+      </c>
       <c r="V20" s="2">
         <v>48.503</v>
       </c>
@@ -1944,8 +3218,14 @@
       <c r="X20" s="2">
         <v>36.29</v>
       </c>
+      <c r="Y20" s="2">
+        <v>52.591999999999999</v>
+      </c>
       <c r="Z20" s="2">
         <v>49.765000000000001</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>47.768000000000001</v>
       </c>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2">
@@ -1954,8 +3234,60 @@
       <c r="AO20" s="2">
         <v>117.44799999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP20" s="13">
+        <f t="shared" si="20"/>
+        <v>146.45999999999998</v>
+      </c>
+      <c r="AQ20" s="13">
+        <f t="shared" si="21"/>
+        <v>174.18099999999998</v>
+      </c>
+      <c r="AR20" s="2">
+        <f>+AQ20*1.05</f>
+        <v>182.89005</v>
+      </c>
+      <c r="AS20" s="2">
+        <f t="shared" ref="AS20:BB20" si="24">+AR20*1.05</f>
+        <v>192.03455250000002</v>
+      </c>
+      <c r="AT20" s="2">
+        <f t="shared" si="24"/>
+        <v>201.63628012500004</v>
+      </c>
+      <c r="AU20" s="2">
+        <f t="shared" si="24"/>
+        <v>211.71809413125004</v>
+      </c>
+      <c r="AV20" s="2">
+        <f t="shared" si="24"/>
+        <v>222.30399883781254</v>
+      </c>
+      <c r="AW20" s="2">
+        <f t="shared" si="24"/>
+        <v>233.41919877970318</v>
+      </c>
+      <c r="AX20" s="2">
+        <f t="shared" si="24"/>
+        <v>245.09015871868834</v>
+      </c>
+      <c r="AY20" s="2">
+        <f t="shared" si="24"/>
+        <v>257.34466665462276</v>
+      </c>
+      <c r="AZ20" s="2">
+        <f t="shared" si="24"/>
+        <v>270.21189998735389</v>
+      </c>
+      <c r="BA20" s="2">
+        <f t="shared" si="24"/>
+        <v>283.72249498672159</v>
+      </c>
+      <c r="BB20" s="2">
+        <f t="shared" si="24"/>
+        <v>297.90861973605769</v>
+      </c>
+    </row>
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1980,36 +3312,52 @@
         <v>357.851</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" ref="S21:Z21" si="11">S18+S19+S20</f>
+        <f t="shared" ref="S21:AB21" si="25">S18+S19+S20</f>
         <v>399.86599999999999</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>441.84399999999999</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
+        <v>459.995</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="25"/>
+        <v>488.40800000000002</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="25"/>
+        <v>495.423</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="25"/>
+        <v>503.60100000000006</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="25"/>
+        <v>516.74900000000002</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="25"/>
+        <v>510.12199999999996</v>
+      </c>
+      <c r="AA21" s="7">
+        <f t="shared" si="25"/>
+        <v>541.5</v>
+      </c>
+      <c r="AB21" s="7">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V21" s="7">
-        <f t="shared" si="11"/>
-        <v>488.40800000000002</v>
-      </c>
-      <c r="W21" s="7">
-        <f t="shared" si="11"/>
-        <v>495.423</v>
-      </c>
-      <c r="X21" s="7">
-        <f t="shared" si="11"/>
-        <v>503.60100000000006</v>
-      </c>
-      <c r="Y21" s="7">
-        <f t="shared" si="11"/>
+      <c r="AC21" s="7">
+        <f t="shared" ref="AC21:AD21" si="26">AC18+AC19+AC20</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="7">
-        <f t="shared" si="11"/>
-        <v>510.12199999999996</v>
+      <c r="AD21" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2">
@@ -2020,8 +3368,60 @@
         <f>SUM(AO18:AO20)</f>
         <v>1288.242</v>
       </c>
-    </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP21" s="2">
+        <f t="shared" ref="AP21:AQ21" si="27">SUM(AP18:AP20)</f>
+        <v>1790.1130000000001</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="27"/>
+        <v>2025.895</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" ref="AR21" si="28">SUM(AR18:AR20)</f>
+        <v>2127.18975</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" ref="AS21" si="29">SUM(AS18:AS20)</f>
+        <v>2233.5492375000003</v>
+      </c>
+      <c r="AT21" s="2">
+        <f t="shared" ref="AT21" si="30">SUM(AT18:AT20)</f>
+        <v>2345.2266993750004</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" ref="AU21" si="31">SUM(AU18:AU20)</f>
+        <v>2462.4880343437503</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" ref="AV21" si="32">SUM(AV18:AV20)</f>
+        <v>2585.6124360609383</v>
+      </c>
+      <c r="AW21" s="2">
+        <f t="shared" ref="AW21" si="33">SUM(AW18:AW20)</f>
+        <v>2714.8930578639847</v>
+      </c>
+      <c r="AX21" s="2">
+        <f t="shared" ref="AX21" si="34">SUM(AX18:AX20)</f>
+        <v>2850.6377107571843</v>
+      </c>
+      <c r="AY21" s="2">
+        <f t="shared" ref="AY21" si="35">SUM(AY18:AY20)</f>
+        <v>2993.1695962950439</v>
+      </c>
+      <c r="AZ21" s="2">
+        <f t="shared" ref="AZ21" si="36">SUM(AZ18:AZ20)</f>
+        <v>3142.8280761097958</v>
+      </c>
+      <c r="BA21" s="2">
+        <f t="shared" ref="BA21" si="37">SUM(BA18:BA20)</f>
+        <v>3299.9694799152858</v>
+      </c>
+      <c r="BB21" s="2">
+        <f t="shared" ref="BB21" si="38">SUM(BB18:BB20)</f>
+        <v>3464.9679539110502</v>
+      </c>
+    </row>
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -2034,48 +3434,64 @@
         <v>-139.65000000000003</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" ref="P22:Z22" si="12">P17-P21</f>
+        <f t="shared" ref="P22:AB22" si="39">P17-P21</f>
         <v>-170.26700000000011</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-300.00700000000006</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-301.90300000000002</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-289.84699999999998</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-313.95499999999998</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="12"/>
-        <v>159.95699999999999</v>
+        <f t="shared" si="39"/>
+        <v>-300.03800000000001</v>
       </c>
       <c r="V22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-355.19299999999998</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-302.32800000000009</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-237.94900000000001</v>
       </c>
       <c r="Y22" s="7">
-        <f t="shared" si="12"/>
-        <v>237.82099999999991</v>
+        <f t="shared" si="39"/>
+        <v>-278.92800000000011</v>
       </c>
       <c r="Z22" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="39"/>
         <v>-244.11199999999997</v>
+      </c>
+      <c r="AA22" s="7">
+        <f t="shared" si="39"/>
+        <v>-254.70899999999995</v>
+      </c>
+      <c r="AB22" s="7">
+        <f t="shared" si="39"/>
+        <v>1041.69</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" ref="AC22:AD22" si="40">AC17-AC21</f>
+        <v>1116.92875</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="40"/>
+        <v>1148.6912499999999</v>
       </c>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2">
@@ -2086,8 +3502,60 @@
         <f>AO17-AO21</f>
         <v>-923.78399999999988</v>
       </c>
-    </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP22" s="2">
+        <f t="shared" ref="AP22:AQ22" si="41">AP17-AP21</f>
+        <v>-1259.0330000000001</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="41"/>
+        <v>-1063.3170000000005</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" ref="AR22" si="42">AR17-AR21</f>
+        <v>-607.30880000000025</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" ref="AS22" si="43">AS17-AS21</f>
+        <v>-62.290737500000432</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" ref="AT22" si="44">AT17-AT21</f>
+        <v>708.10556624999936</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" ref="AU22" si="45">AU17-AU21</f>
+        <v>1778.2512234687497</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" ref="AV22" si="46">AV17-AV21</f>
+        <v>3245.4040434312501</v>
+      </c>
+      <c r="AW22" s="2">
+        <f t="shared" ref="AW22" si="47">AW17-AW21</f>
+        <v>4536.7710729953897</v>
+      </c>
+      <c r="AX22" s="2">
+        <f t="shared" ref="AX22" si="48">AX17-AX21</f>
+        <v>5546.0260197115658</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" ref="AY22" si="49">AY17-AY21</f>
+        <v>6243.1605072205821</v>
+      </c>
+      <c r="AZ22" s="2">
+        <f t="shared" ref="AZ22" si="50">AZ17-AZ21</f>
+        <v>7017.1350377573945</v>
+      </c>
+      <c r="BA22" s="2">
+        <f t="shared" ref="BA22" si="51">BA17-BA21</f>
+        <v>7875.9899453386224</v>
+      </c>
+      <c r="BB22" s="2">
+        <f t="shared" ref="BB22" si="52">BB17-BB21</f>
+        <v>8828.587413868252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -2104,8 +3572,16 @@
       <c r="AO23" s="2">
         <v>356.45600000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP23" s="13">
+        <f t="shared" ref="AP23" si="53">SUM(S23:V23)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="13">
+        <f t="shared" ref="AQ23" si="54">SUM(W23:Z23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
@@ -2125,10 +3601,18 @@
         <f>-10.204-3.315</f>
         <v>-13.519</v>
       </c>
+      <c r="Y24" s="2">
+        <f>46.718-10.286+2.352</f>
+        <v>38.783999999999999</v>
+      </c>
       <c r="Z24" s="2">
         <f>46.26-10.331</f>
         <v>35.929000000000002</v>
       </c>
+      <c r="AA24" s="2">
+        <f>+Z24</f>
+        <v>35.929000000000002</v>
+      </c>
       <c r="AN24">
         <f>-6.998-1.796</f>
         <v>-8.7940000000000005</v>
@@ -2137,8 +3621,60 @@
         <f>38.842-39.903-5.744</f>
         <v>-6.8049999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP24" s="13">
+        <f t="shared" ref="AP24" si="55">SUM(S24:V24)</f>
+        <v>-19.852</v>
+      </c>
+      <c r="AQ24" s="13">
+        <f t="shared" ref="AQ24" si="56">SUM(W24:Z24)</f>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AR24" s="2">
+        <f>+AQ24</f>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AS24" s="2">
+        <f t="shared" ref="AS24:BB24" si="57">+AR24</f>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AT24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AW24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AX24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AY24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="AZ24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="BA24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+      <c r="BB24" s="2">
+        <f t="shared" si="57"/>
+        <v>50.484999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -2172,12 +3708,28 @@
       </c>
       <c r="Y25" s="2">
         <f>+Y22+Y24</f>
-        <v>237.82099999999991</v>
+        <v>-240.14400000000012</v>
       </c>
       <c r="Z25" s="2">
         <f>+Z22+Z24</f>
         <v>-208.18299999999996</v>
       </c>
+      <c r="AA25" s="2">
+        <f>+AA22+AA24</f>
+        <v>-218.77999999999994</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>+AB22+AB24</f>
+        <v>1041.69</v>
+      </c>
+      <c r="AC25" s="2">
+        <f>+AC22+AC24</f>
+        <v>1116.92875</v>
+      </c>
+      <c r="AD25" s="2">
+        <f>+AD22+AD24</f>
+        <v>1148.6912499999999</v>
+      </c>
       <c r="AN25" s="2">
         <f>+AN22+AN24</f>
         <v>-580.601</v>
@@ -2186,8 +3738,60 @@
         <f>+AO22+AO24</f>
         <v>-930.58899999999983</v>
       </c>
-    </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP25" s="2">
+        <f t="shared" ref="AP25:AQ25" si="58">+AP22+AP24</f>
+        <v>-1278.8850000000002</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f t="shared" si="58"/>
+        <v>-1012.8320000000004</v>
+      </c>
+      <c r="AR25" s="2">
+        <f t="shared" ref="AR25" si="59">+AR22+AR24</f>
+        <v>-556.82380000000023</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" ref="AS25" si="60">+AS22+AS24</f>
+        <v>-11.805737500000433</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" ref="AT25" si="61">+AT22+AT24</f>
+        <v>758.59056624999937</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" ref="AU25" si="62">+AU22+AU24</f>
+        <v>1828.7362234687496</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" ref="AV25" si="63">+AV22+AV24</f>
+        <v>3295.8890434312502</v>
+      </c>
+      <c r="AW25" s="2">
+        <f t="shared" ref="AW25" si="64">+AW22+AW24</f>
+        <v>4587.2560729953893</v>
+      </c>
+      <c r="AX25" s="2">
+        <f t="shared" ref="AX25" si="65">+AX22+AX24</f>
+        <v>5596.5110197115655</v>
+      </c>
+      <c r="AY25" s="2">
+        <f t="shared" ref="AY25" si="66">+AY22+AY24</f>
+        <v>6293.6455072205817</v>
+      </c>
+      <c r="AZ25" s="2">
+        <f t="shared" ref="AZ25" si="67">+AZ22+AZ24</f>
+        <v>7067.6200377573941</v>
+      </c>
+      <c r="BA25" s="2">
+        <f t="shared" ref="BA25" si="68">+BA22+BA24</f>
+        <v>7926.4749453386221</v>
+      </c>
+      <c r="BB25" s="2">
+        <f t="shared" ref="BB25" si="69">+BB22+BB24</f>
+        <v>8879.0724138682526</v>
+      </c>
+    </row>
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -2208,8 +3812,14 @@
       <c r="X26" s="2">
         <v>0</v>
       </c>
+      <c r="Y26" s="2">
+        <v>0.30299999999999999</v>
+      </c>
       <c r="Z26" s="2">
         <v>2.6480000000000001</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
       </c>
       <c r="AN26">
         <v>-11.829000000000001</v>
@@ -2218,8 +3828,60 @@
         <f>3.552-9.775</f>
         <v>-6.2230000000000008</v>
       </c>
-    </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP26" s="13">
+        <f t="shared" ref="AP26" si="70">SUM(S26:V26)</f>
+        <v>1.008</v>
+      </c>
+      <c r="AQ26" s="13">
+        <f t="shared" ref="AQ26" si="71">SUM(W26:Z26)</f>
+        <v>2.9510000000000001</v>
+      </c>
+      <c r="AR26" s="2">
+        <f>+AR25*0.1</f>
+        <v>-55.682380000000023</v>
+      </c>
+      <c r="AS26" s="2">
+        <f t="shared" ref="AS26:BB26" si="72">+AS25*0.1</f>
+        <v>-1.1805737500000433</v>
+      </c>
+      <c r="AT26" s="2">
+        <f t="shared" si="72"/>
+        <v>75.859056624999937</v>
+      </c>
+      <c r="AU26" s="2">
+        <f t="shared" si="72"/>
+        <v>182.87362234687498</v>
+      </c>
+      <c r="AV26" s="2">
+        <f t="shared" si="72"/>
+        <v>329.58890434312502</v>
+      </c>
+      <c r="AW26" s="2">
+        <f t="shared" si="72"/>
+        <v>458.72560729953898</v>
+      </c>
+      <c r="AX26" s="2">
+        <f t="shared" si="72"/>
+        <v>559.65110197115655</v>
+      </c>
+      <c r="AY26" s="2">
+        <f t="shared" si="72"/>
+        <v>629.3645507220582</v>
+      </c>
+      <c r="AZ26" s="2">
+        <f t="shared" si="72"/>
+        <v>706.76200377573946</v>
+      </c>
+      <c r="BA26" s="2">
+        <f t="shared" si="72"/>
+        <v>792.6474945338623</v>
+      </c>
+      <c r="BB26" s="2">
+        <f t="shared" si="72"/>
+        <v>887.90724138682526</v>
+      </c>
+    </row>
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -2253,12 +3915,28 @@
       </c>
       <c r="Y27" s="2">
         <f>+Y25-Y26</f>
-        <v>237.82099999999991</v>
+        <v>-240.44700000000012</v>
       </c>
       <c r="Z27" s="2">
         <f>+Z25-Z26</f>
         <v>-210.83099999999996</v>
       </c>
+      <c r="AA27" s="2">
+        <f>+AA25-AA26</f>
+        <v>-218.77999999999994</v>
+      </c>
+      <c r="AB27" s="2">
+        <f>+AB25-AB26</f>
+        <v>1041.69</v>
+      </c>
+      <c r="AC27" s="2">
+        <f>+AC25-AC26</f>
+        <v>1116.92875</v>
+      </c>
+      <c r="AD27" s="2">
+        <f>+AD25-AD26</f>
+        <v>1148.6912499999999</v>
+      </c>
       <c r="AN27" s="2">
         <f>+AN25-AN26</f>
         <v>-568.77200000000005</v>
@@ -2267,8 +3945,60 @@
         <f>+AO25-AO26</f>
         <v>-924.36599999999987</v>
       </c>
-    </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP27" s="2">
+        <f>+AP25-AP26</f>
+        <v>-1279.8930000000003</v>
+      </c>
+      <c r="AQ27" s="2">
+        <f>+AQ25-AQ26</f>
+        <v>-1015.7830000000005</v>
+      </c>
+      <c r="AR27" s="2">
+        <f t="shared" ref="AR27:BB27" si="73">+AR25-AR26</f>
+        <v>-501.14142000000021</v>
+      </c>
+      <c r="AS27" s="2">
+        <f t="shared" si="73"/>
+        <v>-10.625163750000389</v>
+      </c>
+      <c r="AT27" s="2">
+        <f t="shared" si="73"/>
+        <v>682.73150962499949</v>
+      </c>
+      <c r="AU27" s="2">
+        <f t="shared" si="73"/>
+        <v>1645.8626011218746</v>
+      </c>
+      <c r="AV27" s="2">
+        <f t="shared" si="73"/>
+        <v>2966.3001390881254</v>
+      </c>
+      <c r="AW27" s="2">
+        <f t="shared" si="73"/>
+        <v>4128.5304656958506</v>
+      </c>
+      <c r="AX27" s="2">
+        <f t="shared" si="73"/>
+        <v>5036.8599177404085</v>
+      </c>
+      <c r="AY27" s="2">
+        <f t="shared" si="73"/>
+        <v>5664.2809564985237</v>
+      </c>
+      <c r="AZ27" s="2">
+        <f t="shared" si="73"/>
+        <v>6360.8580339816544</v>
+      </c>
+      <c r="BA27" s="2">
+        <f t="shared" si="73"/>
+        <v>7133.8274508047598</v>
+      </c>
+      <c r="BB27" s="2">
+        <f t="shared" si="73"/>
+        <v>7991.1651724814274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -2300,14 +4030,30 @@
         <f>+X27/X29</f>
         <v>-0.39119869822374753</v>
       </c>
-      <c r="Y28" s="1" t="e">
+      <c r="Y28" s="1">
         <f>+Y27/Y29</f>
-        <v>#DIV/0!</v>
+        <v>-0.36937235871273411</v>
       </c>
       <c r="Z28" s="1">
         <f>+Z27/Z29</f>
         <v>-0.31900590104403082</v>
       </c>
+      <c r="AA28" s="1">
+        <f>+AA27/AA29</f>
+        <v>-0.32573173509693182</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>+AB27/AB29</f>
+        <v>1.5509255468192842</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>+AC27/AC29</f>
+        <v>1.6629451490865128</v>
+      </c>
+      <c r="AD28" s="1">
+        <f>+AD27/AD29</f>
+        <v>1.7102349115694466</v>
+      </c>
       <c r="AN28" s="1">
         <f>+AN27/AN29</f>
         <v>-1.1243708708768074</v>
@@ -2316,8 +4062,60 @@
         <f>+AO27/AO29</f>
         <v>-1.5520981128653919</v>
       </c>
-    </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP28" s="1">
+        <f>+AP27/AP29</f>
+        <v>-2.0752991193834553</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f>+AQ27/AQ29</f>
+        <v>-1.5689615958636065</v>
+      </c>
+      <c r="AR28" s="1">
+        <f>+AR27/AR29</f>
+        <v>-0.77405473617549603</v>
+      </c>
+      <c r="AS28" s="1">
+        <f t="shared" ref="AS28:BB28" si="74">+AS27/AS29</f>
+        <v>-1.6411451927737266E-2</v>
+      </c>
+      <c r="AT28" s="1">
+        <f t="shared" si="74"/>
+        <v>1.0545357806614286</v>
+      </c>
+      <c r="AU28" s="1">
+        <f t="shared" si="74"/>
+        <v>2.5421721108035884</v>
+      </c>
+      <c r="AV28" s="1">
+        <f t="shared" si="74"/>
+        <v>4.5816980595601038</v>
+      </c>
+      <c r="AW28" s="1">
+        <f t="shared" si="74"/>
+        <v>6.3768597702754199</v>
+      </c>
+      <c r="AX28" s="1">
+        <f t="shared" si="74"/>
+        <v>7.779850395881228</v>
+      </c>
+      <c r="AY28" s="1">
+        <f t="shared" si="74"/>
+        <v>8.7489545394319013</v>
+      </c>
+      <c r="AZ28" s="1">
+        <f t="shared" si="74"/>
+        <v>9.8248759548621063</v>
+      </c>
+      <c r="BA28" s="1">
+        <f t="shared" si="74"/>
+        <v>11.018791712236013</v>
+      </c>
+      <c r="BB28" s="1">
+        <f t="shared" si="74"/>
+        <v>12.343021355768039</v>
+      </c>
+    </row>
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -2342,62 +4140,148 @@
       <c r="X29" s="2">
         <v>642.81399999999996</v>
       </c>
+      <c r="Y29" s="2">
+        <v>650.96100000000001</v>
+      </c>
       <c r="Z29" s="2">
         <v>660.9</v>
       </c>
+      <c r="AA29" s="2">
+        <v>671.65700000000004</v>
+      </c>
+      <c r="AB29" s="2">
+        <f>+AA29</f>
+        <v>671.65700000000004</v>
+      </c>
+      <c r="AC29" s="2">
+        <f>+AB29</f>
+        <v>671.65700000000004</v>
+      </c>
+      <c r="AD29" s="2">
+        <f>+AC29</f>
+        <v>671.65700000000004</v>
+      </c>
       <c r="AN29" s="2">
         <v>505.858</v>
       </c>
       <c r="AO29" s="2">
         <v>595.55899999999997</v>
       </c>
-    </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP29" s="2">
+        <f>AVERAGE(S29:V29)</f>
+        <v>616.72699999999998</v>
+      </c>
+      <c r="AQ29" s="2">
+        <f>AVERAGE(W29:Z29)</f>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AR29" s="2">
+        <f>+AQ29</f>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AS29" s="2">
+        <f t="shared" ref="AS29:BB29" si="75">+AR29</f>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AT29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AU29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AV29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AW29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AX29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AY29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="AZ29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="BA29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+      <c r="BB29" s="2">
+        <f t="shared" si="75"/>
+        <v>647.42374999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" ref="Q31" si="13">Q12/M12-1</f>
+        <f t="shared" ref="Q31" si="76">Q12/M12-1</f>
         <v>1.6435123376317362E-2</v>
       </c>
       <c r="R31" s="5">
-        <f>R12/N12-1</f>
+        <f t="shared" ref="R31:AD31" si="77">R12/N12-1</f>
         <v>1.798797051175427E-2</v>
       </c>
       <c r="S31" s="5" t="e">
-        <f>S12/O12-1</f>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="5">
-        <f>T12/P12-1</f>
+        <f t="shared" si="77"/>
         <v>0.15154252233143373</v>
       </c>
       <c r="U31" s="5">
-        <f>U12/Q12-1</f>
+        <f t="shared" si="77"/>
         <v>0.37766149578815833</v>
       </c>
       <c r="V31" s="5">
-        <f>V12/R12-1</f>
+        <f t="shared" si="77"/>
         <v>0.29523143350604486</v>
       </c>
       <c r="W31" s="5">
-        <f>W12/S12-1</f>
+        <f t="shared" si="77"/>
         <v>0.22271661905808227</v>
       </c>
       <c r="X31" s="5">
-        <f>X12/T12-1</f>
+        <f t="shared" si="77"/>
         <v>0.31248971797884861</v>
       </c>
       <c r="Y31" s="5">
-        <f>Y12/U12-1</f>
+        <f t="shared" si="77"/>
         <v>0.28844754460373645</v>
       </c>
       <c r="Z31" s="5">
-        <f>Z12/V12-1</f>
+        <f t="shared" si="77"/>
         <v>0.31768450500640721</v>
+      </c>
+      <c r="AA31" s="5">
+        <f t="shared" si="77"/>
+        <v>0.29190939722950238</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="77"/>
+        <v>0.16579728116050374</v>
+      </c>
+      <c r="AC31" s="5">
+        <f t="shared" si="77"/>
+        <v>0.21543620838062449</v>
+      </c>
+      <c r="AD31" s="5">
+        <f t="shared" si="77"/>
+        <v>0.16242765763021616</v>
       </c>
       <c r="AN31" s="10">
         <f>+AN12/AM12-1</f>
@@ -2407,13 +4291,65 @@
         <f>+AO12/AN12-1</f>
         <v>0.15937579623808285</v>
       </c>
-    </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP31" s="10">
+        <f>+AP12/AO12-1</f>
+        <v>0.25808655258393953</v>
+      </c>
+      <c r="AQ31" s="10">
+        <f>+AQ12/AP12-1</f>
+        <v>0.28673907980115088</v>
+      </c>
+      <c r="AR31" s="10">
+        <f>+AR12/AQ12-1</f>
+        <v>0.20559198151904834</v>
+      </c>
+      <c r="AS31" s="10">
+        <f t="shared" ref="AS31:BB31" si="78">+AS12/AR12-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AT31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.25</v>
+      </c>
+      <c r="AU31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="AV31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.25</v>
+      </c>
+      <c r="AW31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AX31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AY31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AZ31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BA31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="BB31" s="10">
+        <f t="shared" si="78"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" ref="Q32" si="14">Q8/M8-1</f>
+        <f t="shared" ref="Q32" si="79">Q8/M8-1</f>
         <v>0.10015631050760931</v>
       </c>
       <c r="R32" s="5">
@@ -2423,511 +4359,830 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="10"/>
     </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="T33" s="10">
+        <f>+T17/T12</f>
+        <v>0.18785105757931847</v>
+      </c>
+      <c r="U33" s="10">
+        <f>+U17/U12</f>
+        <v>0.22427284517508497</v>
+      </c>
+      <c r="V33" s="10">
+        <f>+V17/V12</f>
+        <v>0.17763444760173833</v>
+      </c>
+      <c r="W33" s="10">
+        <f>+W17/W12</f>
+        <v>0.24097716211156861</v>
+      </c>
+      <c r="X33" s="10">
+        <f>+X17/X12</f>
+        <v>0.29730186459968916</v>
+      </c>
+      <c r="Y33" s="10">
+        <f>+Y17/Y12</f>
+        <v>0.25879560760996473</v>
+      </c>
+      <c r="Z33" s="10">
+        <f>+Z17/Z12</f>
+        <v>0.26919103040631137</v>
+      </c>
+      <c r="AA33" s="10">
+        <f>+AA17/AA12</f>
+        <v>0.27703734615395764</v>
+      </c>
+      <c r="AB33" s="10">
+        <f t="shared" ref="AB33:AD33" si="80">+AB17/AB12</f>
+        <v>1</v>
+      </c>
+      <c r="AC33" s="10">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="10">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="AN33" s="10">
+        <f t="shared" ref="AN33:BB33" si="81">+AN17/AN12</f>
+        <v>0.18277744517062219</v>
+      </c>
+      <c r="AO33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.16379752023772931</v>
+      </c>
+      <c r="AP33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.18971831609812137</v>
+      </c>
+      <c r="AQ33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.26723587228021028</v>
+      </c>
+      <c r="AR33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.35</v>
+      </c>
+      <c r="AS33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.4</v>
+      </c>
+      <c r="AT33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.45</v>
+      </c>
+      <c r="AU33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="AV33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AX33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.6</v>
+      </c>
+      <c r="AY33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.6</v>
+      </c>
+      <c r="AZ33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.6</v>
+      </c>
+      <c r="BA33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.6</v>
+      </c>
+      <c r="BB33" s="10">
+        <f t="shared" si="81"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" ref="G33:Q33" si="15">+G3/C3-1</f>
+      <c r="G34" s="5">
+        <f t="shared" ref="G34:Q34" si="82">+G3/C3-1</f>
         <v>0.49367088607594933</v>
       </c>
-      <c r="H33" s="5">
-        <f t="shared" si="15"/>
+      <c r="H34" s="5">
+        <f t="shared" si="82"/>
         <v>0.95321637426900563</v>
       </c>
-      <c r="I33" s="5">
-        <f t="shared" si="15"/>
+      <c r="I34" s="5">
+        <f t="shared" si="82"/>
         <v>0.96739130434782639</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="15"/>
+      <c r="J34" s="5">
+        <f t="shared" si="82"/>
         <v>0.94240837696335067</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="15"/>
+      <c r="K34" s="5">
+        <f t="shared" si="82"/>
         <v>0.78389830508474567</v>
       </c>
-      <c r="L33" s="5">
-        <f t="shared" si="15"/>
+      <c r="L34" s="5">
+        <f t="shared" si="82"/>
         <v>0.29341317365269481</v>
       </c>
-      <c r="M33" s="5">
-        <f t="shared" si="15"/>
+      <c r="M34" s="5">
+        <f t="shared" si="82"/>
         <v>0.30662983425414336</v>
       </c>
-      <c r="N33" s="5">
-        <f t="shared" si="15"/>
+      <c r="N34" s="5">
+        <f t="shared" si="82"/>
         <v>0.33423180592991919</v>
       </c>
-      <c r="O33" s="5">
-        <f t="shared" si="15"/>
+      <c r="O34" s="5">
+        <f t="shared" si="82"/>
         <v>0.28503562945368177</v>
       </c>
-      <c r="P33" s="5">
-        <f t="shared" si="15"/>
+      <c r="P34" s="5">
+        <f t="shared" si="82"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="Q33" s="5">
-        <f t="shared" si="15"/>
+      <c r="Q34" s="5">
+        <f t="shared" si="82"/>
         <v>0.24312896405919671</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R34" s="5">
         <f>+R3/N3-1</f>
         <v>0.18787878787878776</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="AN33" s="10">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="AN34" s="10">
         <f>AN3/AM3-1</f>
         <v>0.33423180592991919</v>
       </c>
-      <c r="AO33" s="10">
+      <c r="AO34" s="10">
         <f>AO3/AN3-1</f>
         <v>0.18787878787878776</v>
       </c>
-    </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="AP34" s="10">
+        <f>AP3/AO3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AQ34" s="10" t="e">
+        <f>AQ3/AP3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="R35" s="2">
-        <f>R36-R51</f>
+      <c r="R36" s="2">
+        <f>R37-R52</f>
         <v>1988.4900000000002</v>
       </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="AO35" s="2">
-        <f>AO36-AO51</f>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="AO36" s="2">
+        <f>AO37-AO52</f>
         <v>1988.4900000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R37" s="2">
         <v>2977.4740000000002</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W37" s="2">
         <f>866.414+1543.819+1059.246</f>
         <v>3469.4790000000003</v>
       </c>
-      <c r="X36" s="2"/>
-      <c r="AO36" s="2">
-        <v>2977.4740000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="R37" s="2">
-        <v>379.35300000000001</v>
-      </c>
-      <c r="W37" s="2">
-        <v>331.67700000000002</v>
-      </c>
       <c r="X37" s="2"/>
       <c r="AO37" s="2">
+        <v>2977.4740000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="2">
         <v>379.35300000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" s="2">
-        <v>61.640999999999998</v>
-      </c>
       <c r="W38" s="2">
-        <v>88.537000000000006</v>
+        <v>331.67700000000002</v>
       </c>
       <c r="X38" s="2"/>
       <c r="AO38" s="2">
+        <v>379.35300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="2">
         <v>61.640999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="W39" s="2">
+        <v>88.537000000000006</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="AO39" s="2">
+        <v>61.640999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R40" s="2">
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W40" s="2">
         <f>525.57+292.509</f>
         <v>818.07900000000006</v>
       </c>
-      <c r="X39" s="2"/>
-      <c r="AO39" s="2">
+      <c r="X40" s="2"/>
+      <c r="AO40" s="2">
         <f>420.136+225.132</f>
         <v>645.26800000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R41" s="2">
         <v>592.346</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W41" s="2">
         <v>691.29200000000003</v>
-      </c>
-      <c r="X40" s="2"/>
-      <c r="AO40" s="2">
-        <v>592.346</v>
-      </c>
-    </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="2">
-        <v>526.03</v>
-      </c>
-      <c r="W41" s="2">
-        <v>715.50099999999998</v>
       </c>
       <c r="X41" s="2"/>
       <c r="AO41" s="2">
+        <v>592.346</v>
+      </c>
+    </row>
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="2">
         <v>526.03</v>
       </c>
-    </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="W42" s="2">
+        <v>715.50099999999998</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="AO42" s="2">
+        <v>526.03</v>
+      </c>
+    </row>
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R43" s="2">
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W43" s="2">
         <f>47.938+141.956</f>
         <v>189.89400000000001</v>
       </c>
-      <c r="X42" s="2"/>
-      <c r="AO42" s="2">
+      <c r="X43" s="2"/>
+      <c r="AO43" s="2">
         <f>54.717+134.335</f>
         <v>189.05200000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R44" s="2">
         <v>4.3230000000000004</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W44" s="2">
         <v>10.212</v>
       </c>
-      <c r="X43" s="2"/>
-      <c r="AO43" s="2">
+      <c r="X44" s="2"/>
+      <c r="AO44" s="2">
         <v>4.3230000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="R44" s="2">
-        <f>SUM(R36:R43)</f>
+      <c r="R45" s="2">
+        <f>SUM(R37:R44)</f>
         <v>5375.4870000000001</v>
       </c>
-      <c r="S44" s="2">
-        <f t="shared" ref="S44:X44" si="16">SUM(S36:S43)</f>
+      <c r="S45" s="2">
+        <f t="shared" ref="S45:AA45" si="83">SUM(S37:S44)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="2">
-        <f t="shared" si="16"/>
+      <c r="T45" s="2">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="U44" s="2">
-        <f t="shared" si="16"/>
+      <c r="U45" s="2">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="V44" s="2">
-        <f t="shared" si="16"/>
+      <c r="V45" s="2">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="W44" s="2">
-        <f t="shared" si="16"/>
+      <c r="W45" s="2">
+        <f t="shared" si="83"/>
         <v>6314.6710000000012</v>
       </c>
-      <c r="X44" s="2">
-        <f t="shared" si="16"/>
+      <c r="X45" s="2">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="AO44" s="2">
-        <f>SUM(AO36:AO43)</f>
+      <c r="Y45" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="2">
+        <f>SUM(AO37:AO44)</f>
         <v>5375.4870000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="R45"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="R46"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R47" s="2">
         <v>71.182000000000002</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W47" s="2">
         <v>49.078000000000003</v>
-      </c>
-      <c r="X46" s="2"/>
-      <c r="AO46" s="2">
-        <v>71.182000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="R47" s="2">
-        <v>236.006</v>
-      </c>
-      <c r="W47" s="2">
-        <v>273.649</v>
       </c>
       <c r="X47" s="2"/>
       <c r="AO47" s="2">
+        <v>71.182000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="R48" s="2">
         <v>236.006</v>
       </c>
-    </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="R48" s="2">
-        <v>231.70400000000001</v>
-      </c>
       <c r="W48" s="2">
-        <v>292.67599999999999</v>
+        <v>273.649</v>
       </c>
       <c r="X48" s="2"/>
       <c r="AO48" s="2">
+        <v>236.006</v>
+      </c>
+    </row>
+    <row r="49" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R49" s="2">
         <v>231.70400000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="W49" s="2">
+        <v>292.67599999999999</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="AO49" s="2">
+        <v>231.70400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R50" s="2">
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W50" s="2">
         <f>2513.339+1393.807</f>
         <v>3907.1459999999997</v>
       </c>
-      <c r="X49" s="2"/>
-      <c r="AO49" s="2">
+      <c r="X50" s="2"/>
+      <c r="AO50" s="2">
         <f>1941.943+1095.291</f>
         <v>3037.2339999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="51" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R51" s="2">
         <v>494.59</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W51" s="2">
         <v>693.81500000000005</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="AO50" s="2">
-        <v>494.59</v>
-      </c>
-    </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="R51" s="2">
-        <v>988.98400000000004</v>
-      </c>
-      <c r="W51" s="2">
-        <v>1005.338</v>
       </c>
       <c r="X51" s="2"/>
       <c r="AO51" s="2">
+        <v>494.59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="2">
         <v>988.98400000000004</v>
       </c>
-    </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="R52" s="2">
-        <v>10.752000000000001</v>
-      </c>
       <c r="W52" s="2">
-        <v>30.282</v>
+        <v>1005.338</v>
       </c>
       <c r="X52" s="2"/>
       <c r="AO52" s="2">
+        <v>988.98400000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="R53" s="2">
         <v>10.752000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="2">
-        <v>305.03500000000003</v>
-      </c>
       <c r="W53" s="2">
-        <v>62.686999999999998</v>
+        <v>30.282</v>
       </c>
       <c r="X53" s="2"/>
       <c r="AO53" s="2">
+        <v>10.752000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="R54" s="2">
         <v>305.03500000000003</v>
       </c>
-    </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="R54" s="2">
-        <f>SUM(R46:R53)</f>
-        <v>5375.487000000001</v>
-      </c>
       <c r="W54" s="2">
-        <f>SUM(W46:W53)</f>
-        <v>6314.6709999999994</v>
+        <v>62.686999999999998</v>
       </c>
       <c r="X54" s="2"/>
       <c r="AO54" s="2">
-        <f>SUM(AO46:AO53)</f>
+        <v>305.03500000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R55" s="2">
+        <f>SUM(R47:R54)</f>
         <v>5375.487000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="R55"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-    </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
+      <c r="W55" s="2">
+        <f>SUM(W47:W54)</f>
+        <v>6314.6709999999994</v>
+      </c>
+      <c r="X55" s="2">
+        <f>SUM(X47:X54)</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <f>SUM(Y47:Y54)</f>
+        <v>0</v>
+      </c>
+      <c r="AO55" s="2">
+        <f>SUM(AO47:AO54)</f>
+        <v>5375.487000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:41" x14ac:dyDescent="0.25">
       <c r="R56"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
       <c r="R57"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:41" x14ac:dyDescent="0.25">
       <c r="R58"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:41" x14ac:dyDescent="0.25">
       <c r="R59"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="R60"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+    </row>
+    <row r="61" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R60" s="2">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7">
+        <v>191.251</v>
+      </c>
+      <c r="M61" s="7">
+        <v>181.166</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7">
+        <v>156.43600000000001</v>
+      </c>
+      <c r="P61" s="7">
+        <v>26.497</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>67.144000000000005</v>
+      </c>
+      <c r="R61" s="2">
+        <v>119.21899999999999</v>
+      </c>
+      <c r="S61" s="7">
+        <v>173.78100000000001</v>
+      </c>
+      <c r="T61" s="7">
+        <v>28.39</v>
+      </c>
+      <c r="U61" s="7">
+        <v>112.70399999999999</v>
+      </c>
+      <c r="V61" s="2">
+        <v>143.30500000000001</v>
+      </c>
+      <c r="W61" s="2">
+        <v>238.946</v>
+      </c>
+      <c r="X61" s="2">
+        <f>390.395-W61</f>
+        <v>151.44899999999998</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>637.825-X61-W61</f>
+        <v>247.43000000000009</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>184.49100000000001</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>443.91399999999999</v>
+      </c>
+      <c r="AM61" s="2">
+        <v>524.34</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>659.10900000000004</v>
+      </c>
+      <c r="AO61" s="2">
         <v>369.29599999999999</v>
       </c>
-      <c r="W60" s="2">
-        <v>238.946</v>
-      </c>
-      <c r="X60" s="2">
-        <f>390.395-W60</f>
-        <v>151.44899999999998</v>
-      </c>
-      <c r="Y60" s="2">
-        <f>637.825-X60-W60</f>
-        <v>247.43000000000009</v>
-      </c>
-      <c r="AM60" s="2">
-        <v>524.34</v>
-      </c>
-      <c r="AN60" s="2">
-        <v>659.10900000000004</v>
-      </c>
-      <c r="AO60" s="2">
-        <v>369.29599999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R61" s="2"/>
-      <c r="W61" s="2">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7">
+        <v>23.234999999999999</v>
+      </c>
+      <c r="M62" s="7">
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7">
+        <v>51.79</v>
+      </c>
+      <c r="P62" s="7">
+        <v>83.811999999999998</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>133.35599999999999</v>
+      </c>
+      <c r="R62" s="2">
+        <v>157.20500000000001</v>
+      </c>
+      <c r="S62" s="7">
+        <v>91.358999999999995</v>
+      </c>
+      <c r="T62" s="7">
+        <v>110.91500000000001</v>
+      </c>
+      <c r="U62" s="7">
+        <v>53.195999999999998</v>
+      </c>
+      <c r="V62" s="2">
+        <v>65.197000000000003</v>
+      </c>
+      <c r="W62" s="2">
         <v>46.68</v>
       </c>
-      <c r="X61" s="2">
-        <f>86.381-W61</f>
+      <c r="X62" s="2">
+        <f>86.381-W62</f>
         <v>39.701000000000001</v>
       </c>
-      <c r="Y61" s="2">
-        <f>115.786-X61-W61</f>
+      <c r="Y62" s="2">
+        <f>115.786-X62-W62</f>
         <v>29.405000000000008</v>
       </c>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-    </row>
-    <row r="62" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="Z62" s="2">
+        <v>63.86</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>17.364999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W62" s="2">
-        <f>+W60-W61</f>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7">
+        <f t="shared" ref="L63:N63" si="84">+L61-L62</f>
+        <v>168.01600000000002</v>
+      </c>
+      <c r="M63" s="7">
+        <f t="shared" si="84"/>
+        <v>178.203</v>
+      </c>
+      <c r="N63" s="7">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <f>+O61-O62</f>
+        <v>104.64600000000002</v>
+      </c>
+      <c r="P63" s="7">
+        <f>+P61-P62</f>
+        <v>-57.314999999999998</v>
+      </c>
+      <c r="Q63" s="7">
+        <f>+Q61-Q62</f>
+        <v>-66.211999999999989</v>
+      </c>
+      <c r="R63" s="7">
+        <f>+R61-R62</f>
+        <v>-37.986000000000018</v>
+      </c>
+      <c r="S63" s="7">
+        <f>+S61-S62</f>
+        <v>82.422000000000011</v>
+      </c>
+      <c r="T63" s="7">
+        <f>+T61-T62</f>
+        <v>-82.525000000000006</v>
+      </c>
+      <c r="U63" s="7">
+        <f>+U61-U62</f>
+        <v>59.507999999999996</v>
+      </c>
+      <c r="V63" s="7">
+        <f>+V61-V62</f>
+        <v>78.108000000000004</v>
+      </c>
+      <c r="W63" s="2">
+        <f>+W61-W62</f>
         <v>192.26599999999999</v>
       </c>
-      <c r="X62" s="2">
-        <f>+X60-X61</f>
+      <c r="X63" s="2">
+        <f>+X61-X62</f>
         <v>111.74799999999999</v>
       </c>
-      <c r="Y62" s="2">
-        <f>+Y60-Y61</f>
+      <c r="Y63" s="2">
+        <f>+Y61-Y62</f>
         <v>218.02500000000009</v>
       </c>
-    </row>
-    <row r="64" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+      <c r="Z63" s="2">
+        <f>+Z61-Z62</f>
+        <v>120.63100000000001</v>
+      </c>
+      <c r="AA63" s="2">
+        <f>+AA61-AA62</f>
+        <v>426.54899999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="T64" s="2">
+        <f>SUM(Q63:T63)</f>
+        <v>-104.301</v>
+      </c>
+      <c r="U64" s="2">
+        <f>SUM(R63:U63)</f>
+        <v>21.418999999999983</v>
+      </c>
+      <c r="V64" s="2">
+        <f>SUM(S63:V63)</f>
+        <v>137.51300000000001</v>
+      </c>
+      <c r="W64" s="2">
+        <f>SUM(T63:W63)</f>
+        <v>247.35699999999997</v>
+      </c>
+      <c r="X64" s="2">
+        <f>SUM(U63:X63)</f>
+        <v>441.62999999999994</v>
+      </c>
+      <c r="Y64" s="2">
+        <f>SUM(V63:Y63)</f>
+        <v>600.14700000000016</v>
+      </c>
+      <c r="Z64" s="2">
+        <f>SUM(W63:Z63)</f>
+        <v>642.67000000000007</v>
+      </c>
+      <c r="AA64" s="2">
+        <f>SUM(X63:AA63)</f>
+        <v>876.95300000000009</v>
+      </c>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K66" s="12">
         <f>53.587302+516.244161</f>
         <v>569.83146299999999</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>0</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K67" s="4">
         <v>67.34</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>2</v>
       </c>
-      <c r="K66" s="7">
-        <f>K64*K65</f>
+      <c r="K68" s="7">
+        <f>K66*K67</f>
         <v>38372.450718419997</v>
       </c>
     </row>
